--- a/sample_data_workbook_final.xlsx
+++ b/sample_data_workbook_final.xlsx
@@ -19,13 +19,18 @@
     <sheet name="Account Health Checks" sheetId="10" r:id="rId10"/>
     <sheet name="Tier Health Checks" sheetId="11" r:id="rId11"/>
     <sheet name="KPI Definitions" sheetId="12" r:id="rId12"/>
+    <sheet name="Data Sources Overview" sheetId="13" r:id="rId13"/>
+    <sheet name="Account Hierarchy Data" sheetId="14" r:id="rId14"/>
+    <sheet name="Hierarchy Contacts" sheetId="15" r:id="rId15"/>
+    <sheet name="Duplicate Analysis" sheetId="16" r:id="rId16"/>
+    <sheet name="Hierarchy Analysis" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="604">
   <si>
     <t>account_id</t>
   </si>
@@ -357,36 +362,72 @@
     <t>summary</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>LogisticsTimes.com</t>
   </si>
   <si>
     <t>FreightDaily News</t>
   </si>
   <si>
+    <t>FMCSA.dot.gov</t>
+  </si>
+  <si>
     <t>Highway Express Announces New Fleet Purchases</t>
   </si>
   <si>
     <t>Greenfield Haulers Expands Off-Road Capabilities</t>
   </si>
   <si>
+    <t>New Regulations for ELD Compliance</t>
+  </si>
+  <si>
+    <t>Safety Compliance Report Q1 2025</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Company to add 5 new 18-wheelers to fleet in Q2.</t>
   </si>
   <si>
     <t>Greenfield invests in 10 new excavators this quarter.</t>
   </si>
   <si>
+    <t>FMCSA announces updated Electronic Logging Device requirements affecting all commercial carriers.</t>
+  </si>
+  <si>
+    <t>Quarterly summary of carrier compliance rates and enforcement actions across the industry.</t>
+  </si>
+  <si>
     <t>2025-02-15</t>
   </si>
   <si>
     <t>2025-02-20</t>
   </si>
   <si>
+    <t>2025-03-10</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
     <t>2025-05-15</t>
   </si>
   <si>
     <t>2025-05-20</t>
   </si>
   <si>
+    <t>2025-03-17</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
     <t>query</t>
   </si>
   <si>
@@ -396,6 +437,9 @@
     <t>method</t>
   </si>
   <si>
+    <t>frequency</t>
+  </si>
+  <si>
     <t>timestamp</t>
   </si>
   <si>
@@ -405,22 +449,46 @@
     <t>what is the fleet count of walmart</t>
   </si>
   <si>
+    <t>FMCSA carrier safety ratings</t>
+  </si>
+  <si>
+    <t>FMCSA Hours of Service compliance statistics</t>
+  </si>
+  <si>
     <t>Amazon operates an estimated 40,000+ vehicles globally (example data)</t>
   </si>
   <si>
     <t>Walmart's private fleet numbers over 10,000 trucks (example data)</t>
   </si>
   <si>
+    <t>As of Q1 2025, 75% of carriers have satisfactory ratings, 15% conditional, 10% unsatisfactory (example data)</t>
+  </si>
+  <si>
+    <t>Recent enforcement blitz found 8.5% of drivers with HOS violations (example data)</t>
+  </si>
+  <si>
     <t>Automated web scraping using X method</t>
   </si>
   <si>
+    <t>FMCSA.dot.gov API and structured data extraction</t>
+  </si>
+  <si>
+    <t>FMCSA.dot.gov data scraping and report aggregation</t>
+  </si>
+  <si>
+    <t>recurring</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>2025-03-01</t>
   </si>
   <si>
     <t>2025-03-05</t>
   </si>
   <si>
-    <t>2025-04-01 23:19:15</t>
+    <t>2025-04-02 12:27:45</t>
   </si>
   <si>
     <t>2025-05-30</t>
@@ -435,6 +503,12 @@
     <t>Used multiple sources, unverified.</t>
   </si>
   <si>
+    <t>Authoritative source directly from DOT database.</t>
+  </si>
+  <si>
+    <t>Combined data from multiple FMCSA enforcement reports.</t>
+  </si>
+  <si>
     <t>tier</t>
   </si>
   <si>
@@ -477,9 +551,6 @@
     <t>Quarterly</t>
   </si>
   <si>
-    <t>2025-03-10</t>
-  </si>
-  <si>
     <t>2025-06-10</t>
   </si>
   <si>
@@ -727,6 +798,1050 @@
   </si>
   <si>
     <t>90%+ alignment with official data sources within the last 90 days</t>
+  </si>
+  <si>
+    <t>source_name</t>
+  </si>
+  <si>
+    <t>refresh_rate</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>collection_method</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>access_credentials</t>
+  </si>
+  <si>
+    <t>data_quality_score</t>
+  </si>
+  <si>
+    <t>fields_provided</t>
+  </si>
+  <si>
+    <t>typical_response_time</t>
+  </si>
+  <si>
+    <t>rate_limits</t>
+  </si>
+  <si>
+    <t>ZoomInfo</t>
+  </si>
+  <si>
+    <t>Dun &amp; Bradstreet</t>
+  </si>
+  <si>
+    <t>Clearbit</t>
+  </si>
+  <si>
+    <t>RSS Feeds</t>
+  </si>
+  <si>
+    <t>Internal CRM</t>
+  </si>
+  <si>
+    <t>Government DOT Records</t>
+  </si>
+  <si>
+    <t>SONAR API</t>
+  </si>
+  <si>
+    <t>Weekly for Tier 1, Monthly for Tier 2, Quarterly for Tier 3</t>
+  </si>
+  <si>
+    <t>Monthly for all tiers</t>
+  </si>
+  <si>
+    <t>Weekly for Tier 1, Monthly for others</t>
+  </si>
+  <si>
+    <t>On-demand</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Real-time</t>
+  </si>
+  <si>
+    <t>Weekly for Tier 1, Monthly for Tier 2-3</t>
+  </si>
+  <si>
+    <t>Both new and refresh data</t>
+  </si>
+  <si>
+    <t>Primarily verification of existing data</t>
+  </si>
+  <si>
+    <t>Enrichment of existing records</t>
+  </si>
+  <si>
+    <t>New data acquisition</t>
+  </si>
+  <si>
+    <t>New data for event-driven updates</t>
+  </si>
+  <si>
+    <t>Source of truth for account status</t>
+  </si>
+  <si>
+    <t>Verification of fleet data</t>
+  </si>
+  <si>
+    <t>High-frequency transportation &amp; supply chain data</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>Custom Python scripts</t>
+  </si>
+  <si>
+    <t>RSS Aggregator Service</t>
+  </si>
+  <si>
+    <t>Salesforce API</t>
+  </si>
+  <si>
+    <t>Batch download + processing</t>
+  </si>
+  <si>
+    <t>Sales Operations</t>
+  </si>
+  <si>
+    <t>Data Team</t>
+  </si>
+  <si>
+    <t>Marketing Operations</t>
+  </si>
+  <si>
+    <t>Data Engineering Team</t>
+  </si>
+  <si>
+    <t>Marketing Team</t>
+  </si>
+  <si>
+    <t>Supply Chain Analytics Team</t>
+  </si>
+  <si>
+    <t>$3,500/month</t>
+  </si>
+  <si>
+    <t>$2,800/month</t>
+  </si>
+  <si>
+    <t>$1,200/month</t>
+  </si>
+  <si>
+    <t>Internal resource cost only</t>
+  </si>
+  <si>
+    <t>$300/month</t>
+  </si>
+  <si>
+    <t>Included in Salesforce license</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>$4,200/month</t>
+  </si>
+  <si>
+    <t>API key stored in secure vault</t>
+  </si>
+  <si>
+    <t>OAuth2 tokens</t>
+  </si>
+  <si>
+    <t>API key in configuration file</t>
+  </si>
+  <si>
+    <t>Service account</t>
+  </si>
+  <si>
+    <t>OAuth via connected app</t>
+  </si>
+  <si>
+    <t>Public data</t>
+  </si>
+  <si>
+    <t>API token with role-based access</t>
+  </si>
+  <si>
+    <t>Company details, contacts, technologies, etc.</t>
+  </si>
+  <si>
+    <t>Financial data, employee count, industry codes</t>
+  </si>
+  <si>
+    <t>Technology stack, social profiles, etc.</t>
+  </si>
+  <si>
+    <t>Public fleet information, news mentions</t>
+  </si>
+  <si>
+    <t>News, acquisitions, fleet changes</t>
+  </si>
+  <si>
+    <t>Account status, sales cycle info, contacts</t>
+  </si>
+  <si>
+    <t>Official fleet size, DOT numbers, compliance</t>
+  </si>
+  <si>
+    <t>Market rates, capacity data, freight indices across trucking, rail, ocean, and air</t>
+  </si>
+  <si>
+    <t>1-2 seconds</t>
+  </si>
+  <si>
+    <t>2-3 seconds</t>
+  </si>
+  <si>
+    <t>0.5-1 seconds</t>
+  </si>
+  <si>
+    <t>5-30 minutes per batch</t>
+  </si>
+  <si>
+    <t>1 second</t>
+  </si>
+  <si>
+    <t>24-48 hours for processing</t>
+  </si>
+  <si>
+    <t>10,000 requests/day</t>
+  </si>
+  <si>
+    <t>5,000 requests/day</t>
+  </si>
+  <si>
+    <t>20,000 requests/day</t>
+  </si>
+  <si>
+    <t>Throttled to avoid IP blocking</t>
+  </si>
+  <si>
+    <t>Unlimited</t>
+  </si>
+  <si>
+    <t>100,000 requests/day</t>
+  </si>
+  <si>
+    <t>15,000 requests/day</t>
+  </si>
+  <si>
+    <t>Primary source for all contact data</t>
+  </si>
+  <si>
+    <t>Authoritative source for company verification</t>
+  </si>
+  <si>
+    <t>Used primarily for technology stack insights</t>
+  </si>
+  <si>
+    <t>Used for supplemental data not available via APIs</t>
+  </si>
+  <si>
+    <t>Triggers event-based enrichment workflows</t>
+  </si>
+  <si>
+    <t>System of record for all prospect/customer data</t>
+  </si>
+  <si>
+    <t>Most accurate source for fleet verification</t>
+  </si>
+  <si>
+    <t>Premium source for supply chain intelligence and market rate benchmarking</t>
+  </si>
+  <si>
+    <t>account_name</t>
+  </si>
+  <si>
+    <t>parent_account_id</t>
+  </si>
+  <si>
+    <t>ultimate_parent_id</t>
+  </si>
+  <si>
+    <t>headquarters</t>
+  </si>
+  <si>
+    <t>global_presence</t>
+  </si>
+  <si>
+    <t>duplicate_score</t>
+  </si>
+  <si>
+    <t>hierarchy_score</t>
+  </si>
+  <si>
+    <t>hierarchy_complete</t>
+  </si>
+  <si>
+    <t>duplicate_status</t>
+  </si>
+  <si>
+    <t>ACbf3279be</t>
+  </si>
+  <si>
+    <t>AC658a7681</t>
+  </si>
+  <si>
+    <t>ACa1a3b3e0</t>
+  </si>
+  <si>
+    <t>AC2a3638c6</t>
+  </si>
+  <si>
+    <t>AC21fea92a</t>
+  </si>
+  <si>
+    <t>AC7f09016f</t>
+  </si>
+  <si>
+    <t>AC2cf5707e</t>
+  </si>
+  <si>
+    <t>AC26aa7cc7</t>
+  </si>
+  <si>
+    <t>ACa56e8884</t>
+  </si>
+  <si>
+    <t>ACb256f53c</t>
+  </si>
+  <si>
+    <t>MegaLogistics Inc.</t>
+  </si>
+  <si>
+    <t>MegaLogistics - Western Division</t>
+  </si>
+  <si>
+    <t>TransGlobal Shipping</t>
+  </si>
+  <si>
+    <t>Trans-Global Shipping Ltd</t>
+  </si>
+  <si>
+    <t>FastFreight Solutions</t>
+  </si>
+  <si>
+    <t>FastFreight Europe GmbH</t>
+  </si>
+  <si>
+    <t>Express Delivery Holdings</t>
+  </si>
+  <si>
+    <t>Express Delivery Japan</t>
+  </si>
+  <si>
+    <t>Express Delivery Service</t>
+  </si>
+  <si>
+    <t>CargoSmart Inc.</t>
+  </si>
+  <si>
+    <t>megalogistics.com</t>
+  </si>
+  <si>
+    <t>west.megalogistics.com</t>
+  </si>
+  <si>
+    <t>transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>fastfreight.com</t>
+  </si>
+  <si>
+    <t>fastfreight.eu</t>
+  </si>
+  <si>
+    <t>expressdelivery.com</t>
+  </si>
+  <si>
+    <t>expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>eds-courier.com</t>
+  </si>
+  <si>
+    <t>cargosmart.com</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Courier Services</t>
+  </si>
+  <si>
+    <t>$750M</t>
+  </si>
+  <si>
+    <t>$250M</t>
+  </si>
+  <si>
+    <t>$320M</t>
+  </si>
+  <si>
+    <t>$450M</t>
+  </si>
+  <si>
+    <t>$150M</t>
+  </si>
+  <si>
+    <t>$890M</t>
+  </si>
+  <si>
+    <t>$210M</t>
+  </si>
+  <si>
+    <t>$45M</t>
+  </si>
+  <si>
+    <t>$380M</t>
+  </si>
+  <si>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>Denver, CO</t>
+  </si>
+  <si>
+    <t>Boston, MA</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>Tokyo, Japan</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>Potential Duplicate</t>
+  </si>
+  <si>
+    <t>Not a Duplicate - Subsidiary</t>
+  </si>
+  <si>
+    <t>Not a Duplicate - Different Company</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>linkedin_url</t>
+  </si>
+  <si>
+    <t>last_contact_date</t>
+  </si>
+  <si>
+    <t>CT7f4f8700</t>
+  </si>
+  <si>
+    <t>CT72543cf0</t>
+  </si>
+  <si>
+    <t>CTf93da17d</t>
+  </si>
+  <si>
+    <t>CT8c5d3329</t>
+  </si>
+  <si>
+    <t>CTa66c0a0b</t>
+  </si>
+  <si>
+    <t>CT23cea9f2</t>
+  </si>
+  <si>
+    <t>CT32ecb26a</t>
+  </si>
+  <si>
+    <t>CTaa8cb7ed</t>
+  </si>
+  <si>
+    <t>CTce624d1f</t>
+  </si>
+  <si>
+    <t>CT4badb4bf</t>
+  </si>
+  <si>
+    <t>CT92edf938</t>
+  </si>
+  <si>
+    <t>CT35fa91ec</t>
+  </si>
+  <si>
+    <t>CTab5e647d</t>
+  </si>
+  <si>
+    <t>CT58796f05</t>
+  </si>
+  <si>
+    <t>CT40959aff</t>
+  </si>
+  <si>
+    <t>CTd15333cf</t>
+  </si>
+  <si>
+    <t>CT35359c55</t>
+  </si>
+  <si>
+    <t>CT2ee5767f</t>
+  </si>
+  <si>
+    <t>CT999d7e62</t>
+  </si>
+  <si>
+    <t>CTccf814fe</t>
+  </si>
+  <si>
+    <t>CT45907402</t>
+  </si>
+  <si>
+    <t>CT20f6d8cb</t>
+  </si>
+  <si>
+    <t>CT21cb31dc</t>
+  </si>
+  <si>
+    <t>CT18f5cb00</t>
+  </si>
+  <si>
+    <t>CTdc03f9ac</t>
+  </si>
+  <si>
+    <t>CTa8377da6</t>
+  </si>
+  <si>
+    <t>CTcc9f91ba</t>
+  </si>
+  <si>
+    <t>CT02af880d</t>
+  </si>
+  <si>
+    <t>CTdf949376</t>
+  </si>
+  <si>
+    <t>CT351fbf89</t>
+  </si>
+  <si>
+    <t>CT263d4aac</t>
+  </si>
+  <si>
+    <t>CTc898b685</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>sarah.brown@megalogistics.com</t>
+  </si>
+  <si>
+    <t>emma.wilson@megalogistics.com</t>
+  </si>
+  <si>
+    <t>lisa.wilson@megalogistics.com</t>
+  </si>
+  <si>
+    <t>david.smith@west.megalogistics.com</t>
+  </si>
+  <si>
+    <t>lisa.wilson@west.megalogistics.com</t>
+  </si>
+  <si>
+    <t>john.jones@west.megalogistics.com</t>
+  </si>
+  <si>
+    <t>jennifer.brown@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>emma.miller@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>robert.brown@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>lisa.williams@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>robert.davis@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>john.miller@fastfreight.com</t>
+  </si>
+  <si>
+    <t>michael.brown@fastfreight.com</t>
+  </si>
+  <si>
+    <t>michael.miller@fastfreight.com</t>
+  </si>
+  <si>
+    <t>robert.wilson@fastfreight.com</t>
+  </si>
+  <si>
+    <t>sarah.wilson@fastfreight.eu</t>
+  </si>
+  <si>
+    <t>emma.wilson@fastfreight.eu</t>
+  </si>
+  <si>
+    <t>david.williams@expressdelivery.com</t>
+  </si>
+  <si>
+    <t>emma.williams@expressdelivery.com</t>
+  </si>
+  <si>
+    <t>david.brown@expressdelivery.com</t>
+  </si>
+  <si>
+    <t>sarah.williams@expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>lisa.brown@expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>jennifer.brown@expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>john.brown@expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>lisa.brown@eds-courier.com</t>
+  </si>
+  <si>
+    <t>david.davis@eds-courier.com</t>
+  </si>
+  <si>
+    <t>jennifer.johnson@eds-courier.com</t>
+  </si>
+  <si>
+    <t>john.williams@eds-courier.com</t>
+  </si>
+  <si>
+    <t>emma.smith@cargosmart.com</t>
+  </si>
+  <si>
+    <t>lisa.jones@cargosmart.com</t>
+  </si>
+  <si>
+    <t>david.jones@cargosmart.com</t>
+  </si>
+  <si>
+    <t>+1-573-367-4366</t>
+  </si>
+  <si>
+    <t>+1-899-309-9721</t>
+  </si>
+  <si>
+    <t>+1-295-688-6492</t>
+  </si>
+  <si>
+    <t>+1-249-802-8815</t>
+  </si>
+  <si>
+    <t>+1-312-504-4881</t>
+  </si>
+  <si>
+    <t>+1-549-422-1079</t>
+  </si>
+  <si>
+    <t>+1-834-968-6548</t>
+  </si>
+  <si>
+    <t>+1-444-761-2654</t>
+  </si>
+  <si>
+    <t>+1-317-972-2593</t>
+  </si>
+  <si>
+    <t>+1-617-429-3266</t>
+  </si>
+  <si>
+    <t>+1-453-877-5242</t>
+  </si>
+  <si>
+    <t>+1-834-121-2712</t>
+  </si>
+  <si>
+    <t>+1-420-234-3670</t>
+  </si>
+  <si>
+    <t>+1-696-222-8825</t>
+  </si>
+  <si>
+    <t>+1-476-388-4926</t>
+  </si>
+  <si>
+    <t>+1-437-809-9495</t>
+  </si>
+  <si>
+    <t>+1-795-986-6843</t>
+  </si>
+  <si>
+    <t>+1-903-480-3580</t>
+  </si>
+  <si>
+    <t>+1-492-849-3487</t>
+  </si>
+  <si>
+    <t>+1-582-509-3231</t>
+  </si>
+  <si>
+    <t>+1-868-775-2745</t>
+  </si>
+  <si>
+    <t>+1-940-899-2358</t>
+  </si>
+  <si>
+    <t>+1-948-682-8252</t>
+  </si>
+  <si>
+    <t>+1-971-260-6306</t>
+  </si>
+  <si>
+    <t>+1-839-152-8511</t>
+  </si>
+  <si>
+    <t>+1-392-431-2130</t>
+  </si>
+  <si>
+    <t>+1-204-449-7443</t>
+  </si>
+  <si>
+    <t>+1-676-471-1338</t>
+  </si>
+  <si>
+    <t>+1-518-356-8362</t>
+  </si>
+  <si>
+    <t>+1-992-181-5471</t>
+  </si>
+  <si>
+    <t>+1-826-544-3399</t>
+  </si>
+  <si>
+    <t>Fleet Manager</t>
+  </si>
+  <si>
+    <t>VP of Operations</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Logistics Director</t>
+  </si>
+  <si>
+    <t>Transportation Manager</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/sarahbrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/emmawilson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/lisawilson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/davidsmith</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/johnjones</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/jenniferbrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/emmamiller</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/robertbrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/lisawilliams</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/robertdavis</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/johnmiller</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/michaelbrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/michaelmiller</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/robertwilson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/sarahwilson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/davidwilliams</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/emmawilliams</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/davidbrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/sarahwilliams</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/lisabrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/johnbrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/daviddavis</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/jenniferjohnson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/johnwilliams</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/emmasmith</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/lisajones</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/davidjones</t>
+  </si>
+  <si>
+    <t>2025-03-14</t>
+  </si>
+  <si>
+    <t>2025-01-03</t>
+  </si>
+  <si>
+    <t>2025-01-08</t>
+  </si>
+  <si>
+    <t>2025-02-27</t>
+  </si>
+  <si>
+    <t>2025-02-05</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>2025-02-14</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-01-19</t>
+  </si>
+  <si>
+    <t>2025-03-26</t>
+  </si>
+  <si>
+    <t>2025-02-19</t>
+  </si>
+  <si>
+    <t>2025-03-12</t>
+  </si>
+  <si>
+    <t>2025-02-08</t>
+  </si>
+  <si>
+    <t>2025-02-12</t>
+  </si>
+  <si>
+    <t>2025-03-30</t>
+  </si>
+  <si>
+    <t>2025-01-09</t>
+  </si>
+  <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
+    <t>2025-02-11</t>
+  </si>
+  <si>
+    <t>2025-01-07</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>Technical contact</t>
+  </si>
+  <si>
+    <t>Key decision maker</t>
+  </si>
+  <si>
+    <t>Initial outreach made</t>
+  </si>
+  <si>
+    <t>Responded positively</t>
+  </si>
+  <si>
+    <t>Potential duplicate contact</t>
+  </si>
+  <si>
+    <t>has_parent</t>
+  </si>
+  <si>
+    <t>has_ultimate_parent</t>
+  </si>
+  <si>
+    <t>issues</t>
+  </si>
+  <si>
+    <t>recommended_action</t>
+  </si>
+  <si>
+    <t>Potential missing parent link to: MegaLogistics - Western Division</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Potential missing parent link to: Trans-Global Shipping Ltd</t>
+  </si>
+  <si>
+    <t>Potential missing parent link to: TransGlobal Shipping</t>
+  </si>
+  <si>
+    <t>Potential missing parent link to: FastFreight Europe GmbH</t>
+  </si>
+  <si>
+    <t>Potential missing subsidiary link: Express Delivery Service; Potential missing parent link to: Express Delivery Japan, Express Delivery Service</t>
+  </si>
+  <si>
+    <t>Potential missing subsidiary link: Express Delivery Holdings; Potential missing subsidiary link: Express Delivery Japan; Potential missing parent link to: Express Delivery Holdings, Express Delivery Japan</t>
+  </si>
+  <si>
+    <t>Fix Hierarchy</t>
   </si>
 </sst>
 </file>
@@ -1279,28 +2394,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1311,10 +2426,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -1332,7 +2447,7 @@
         <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1343,10 +2458,10 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
         <v>35</v>
@@ -1364,7 +2479,7 @@
         <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1375,10 +2490,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
@@ -1396,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1407,10 +2522,10 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
@@ -1428,7 +2543,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1439,10 +2554,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
@@ -1460,7 +2575,7 @@
         <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1471,10 +2586,10 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
@@ -1492,7 +2607,7 @@
         <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1503,10 +2618,10 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E8" t="s">
         <v>36</v>
@@ -1524,7 +2639,7 @@
         <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1535,10 +2650,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
         <v>36</v>
@@ -1556,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1567,10 +2682,10 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E10" t="s">
         <v>36</v>
@@ -1588,7 +2703,7 @@
         <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1599,10 +2714,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -1620,21 +2735,21 @@
         <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="E12" t="s">
         <v>68</v>
@@ -1643,7 +2758,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H12">
         <v>75</v>
@@ -1652,21 +2767,21 @@
         <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
         <v>68</v>
@@ -1675,7 +2790,7 @@
         <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H13">
         <v>80</v>
@@ -1684,21 +2799,21 @@
         <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
         <v>68</v>
@@ -1707,7 +2822,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H14">
         <v>8.5</v>
@@ -1716,21 +2831,21 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="E15" t="s">
         <v>68</v>
@@ -1739,7 +2854,7 @@
         <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H15">
         <v>70</v>
@@ -1748,21 +2863,21 @@
         <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="E16" t="s">
         <v>68</v>
@@ -1771,7 +2886,7 @@
         <v>37</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H16">
         <v>85</v>
@@ -1780,7 +2895,7 @@
         <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1798,48 +2913,48 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C2">
         <v>92.5</v>
@@ -1854,15 +2969,15 @@
         <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="C3">
         <v>97</v>
@@ -1877,15 +2992,15 @@
         <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="C4">
         <v>3.5</v>
@@ -1900,15 +3015,15 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1923,7 +3038,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="H5">
         <v>1.8</v>
@@ -1931,10 +3046,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C6">
         <v>18.5</v>
@@ -1946,7 +3061,7 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="I6">
         <v>20.5</v>
@@ -1963,10 +3078,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C7">
         <v>95</v>
@@ -1981,7 +3096,7 @@
         <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="H7">
         <v>92.5</v>
@@ -2002,121 +3117,2551 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D4" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>233</v>
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="10" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="40.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H2">
+        <v>92</v>
+      </c>
+      <c r="I2" t="s">
+        <v>315</v>
+      </c>
+      <c r="J2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" t="s">
+        <v>329</v>
+      </c>
+      <c r="L2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G3" t="s">
+        <v>309</v>
+      </c>
+      <c r="H3">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K3" t="s">
+        <v>330</v>
+      </c>
+      <c r="L3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H4">
+        <v>88</v>
+      </c>
+      <c r="I4" t="s">
+        <v>317</v>
+      </c>
+      <c r="J4" t="s">
+        <v>325</v>
+      </c>
+      <c r="K4" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" t="s">
+        <v>326</v>
+      </c>
+      <c r="K5" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6">
+        <v>82</v>
+      </c>
+      <c r="I6" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" t="s">
+        <v>279</v>
+      </c>
+      <c r="K6" t="s">
+        <v>333</v>
+      </c>
+      <c r="L6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H8">
+        <v>98</v>
+      </c>
+      <c r="I8" t="s">
+        <v>321</v>
+      </c>
+      <c r="J8" t="s">
+        <v>328</v>
+      </c>
+      <c r="K8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F9" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" t="s">
+        <v>314</v>
+      </c>
+      <c r="H9">
+        <v>94</v>
+      </c>
+      <c r="I9" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" t="s">
+        <v>323</v>
+      </c>
+      <c r="K9" t="s">
+        <v>335</v>
+      </c>
+      <c r="L9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" t="s">
+        <v>382</v>
+      </c>
+      <c r="G2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" t="s">
+        <v>382</v>
+      </c>
+      <c r="G3" t="s">
+        <v>387</v>
+      </c>
+      <c r="H3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I3" t="s">
+        <v>402</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>403</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H4" t="s">
+        <v>397</v>
+      </c>
+      <c r="I4" t="s">
+        <v>401</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>80</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H5" t="s">
+        <v>397</v>
+      </c>
+      <c r="I5" t="s">
+        <v>401</v>
+      </c>
+      <c r="J5">
+        <v>85</v>
+      </c>
+      <c r="K5">
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>405</v>
+      </c>
+      <c r="N5" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F6" t="s">
+        <v>382</v>
+      </c>
+      <c r="G6" t="s">
+        <v>389</v>
+      </c>
+      <c r="H6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" t="s">
+        <v>401</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>35</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>406</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G7" t="s">
+        <v>390</v>
+      </c>
+      <c r="H7" t="s">
+        <v>398</v>
+      </c>
+      <c r="I7" t="s">
+        <v>401</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>25</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>407</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" t="s">
+        <v>391</v>
+      </c>
+      <c r="H8" t="s">
+        <v>399</v>
+      </c>
+      <c r="I8" t="s">
+        <v>401</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>90</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" t="s">
+        <v>392</v>
+      </c>
+      <c r="H9" t="s">
+        <v>400</v>
+      </c>
+      <c r="I9" t="s">
+        <v>402</v>
+      </c>
+      <c r="J9">
+        <v>72</v>
+      </c>
+      <c r="K9">
+        <v>90</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="E10" t="s">
+        <v>380</v>
+      </c>
+      <c r="F10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" t="s">
+        <v>395</v>
+      </c>
+      <c r="I10" t="s">
+        <v>402</v>
+      </c>
+      <c r="J10">
+        <v>65</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>408</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="E11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" t="s">
+        <v>383</v>
+      </c>
+      <c r="G11" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>401</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>60</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>409</v>
+      </c>
+      <c r="N11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H2" t="s">
+        <v>536</v>
+      </c>
+      <c r="I2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J2" t="s">
+        <v>587</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G3" t="s">
+        <v>529</v>
+      </c>
+      <c r="H3" t="s">
+        <v>537</v>
+      </c>
+      <c r="I3" t="s">
+        <v>564</v>
+      </c>
+      <c r="J3" t="s">
+        <v>588</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" t="s">
+        <v>499</v>
+      </c>
+      <c r="G4" t="s">
+        <v>530</v>
+      </c>
+      <c r="H4" t="s">
+        <v>538</v>
+      </c>
+      <c r="I4" t="s">
+        <v>565</v>
+      </c>
+      <c r="J4" t="s">
+        <v>587</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>453</v>
+      </c>
+      <c r="D5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" t="s">
+        <v>500</v>
+      </c>
+      <c r="G5" t="s">
+        <v>531</v>
+      </c>
+      <c r="H5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I5" t="s">
+        <v>566</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" t="s">
+        <v>459</v>
+      </c>
+      <c r="E6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" t="s">
+        <v>501</v>
+      </c>
+      <c r="G6" t="s">
+        <v>529</v>
+      </c>
+      <c r="H6" t="s">
+        <v>538</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>587</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" t="s">
+        <v>461</v>
+      </c>
+      <c r="E7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G7" t="s">
+        <v>529</v>
+      </c>
+      <c r="H7" t="s">
+        <v>540</v>
+      </c>
+      <c r="I7" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D8" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" t="s">
+        <v>472</v>
+      </c>
+      <c r="F8" t="s">
+        <v>503</v>
+      </c>
+      <c r="G8" t="s">
+        <v>532</v>
+      </c>
+      <c r="H8" t="s">
+        <v>541</v>
+      </c>
+      <c r="I8" t="s">
+        <v>567</v>
+      </c>
+      <c r="J8" t="s">
+        <v>589</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D9" t="s">
+        <v>462</v>
+      </c>
+      <c r="E9" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" t="s">
+        <v>504</v>
+      </c>
+      <c r="G9" t="s">
+        <v>531</v>
+      </c>
+      <c r="H9" t="s">
+        <v>542</v>
+      </c>
+      <c r="I9" t="s">
+        <v>568</v>
+      </c>
+      <c r="J9" t="s">
+        <v>590</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" t="s">
+        <v>458</v>
+      </c>
+      <c r="E10" t="s">
+        <v>472</v>
+      </c>
+      <c r="F10" t="s">
+        <v>503</v>
+      </c>
+      <c r="G10" t="s">
+        <v>532</v>
+      </c>
+      <c r="H10" t="s">
+        <v>541</v>
+      </c>
+      <c r="I10" t="s">
+        <v>569</v>
+      </c>
+      <c r="J10" t="s">
+        <v>591</v>
+      </c>
+      <c r="K10">
+        <v>95</v>
+      </c>
+      <c r="L10" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F11" t="s">
+        <v>505</v>
+      </c>
+      <c r="G11" t="s">
+        <v>533</v>
+      </c>
+      <c r="H11" t="s">
+        <v>543</v>
+      </c>
+      <c r="I11" t="s">
+        <v>570</v>
+      </c>
+      <c r="J11" t="s">
+        <v>590</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" t="s">
+        <v>452</v>
+      </c>
+      <c r="D12" t="s">
+        <v>463</v>
+      </c>
+      <c r="E12" t="s">
+        <v>475</v>
+      </c>
+      <c r="F12" t="s">
+        <v>506</v>
+      </c>
+      <c r="G12" t="s">
+        <v>528</v>
+      </c>
+      <c r="H12" t="s">
+        <v>544</v>
+      </c>
+      <c r="I12" t="s">
+        <v>571</v>
+      </c>
+      <c r="J12" t="s">
+        <v>587</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>456</v>
+      </c>
+      <c r="D13" t="s">
+        <v>464</v>
+      </c>
+      <c r="E13" t="s">
+        <v>476</v>
+      </c>
+      <c r="F13" t="s">
+        <v>507</v>
+      </c>
+      <c r="G13" t="s">
+        <v>534</v>
+      </c>
+      <c r="H13" t="s">
+        <v>545</v>
+      </c>
+      <c r="I13" t="s">
+        <v>564</v>
+      </c>
+      <c r="J13" t="s">
+        <v>588</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>430</v>
+      </c>
+      <c r="B14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D14" t="s">
+        <v>462</v>
+      </c>
+      <c r="E14" t="s">
+        <v>477</v>
+      </c>
+      <c r="F14" t="s">
+        <v>508</v>
+      </c>
+      <c r="G14" t="s">
+        <v>532</v>
+      </c>
+      <c r="H14" t="s">
+        <v>546</v>
+      </c>
+      <c r="I14" t="s">
+        <v>572</v>
+      </c>
+      <c r="J14" t="s">
+        <v>587</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>357</v>
+      </c>
+      <c r="C15" t="s">
+        <v>457</v>
+      </c>
+      <c r="D15" t="s">
+        <v>458</v>
+      </c>
+      <c r="E15" t="s">
+        <v>478</v>
+      </c>
+      <c r="F15" t="s">
+        <v>509</v>
+      </c>
+      <c r="G15" t="s">
+        <v>528</v>
+      </c>
+      <c r="H15" t="s">
+        <v>547</v>
+      </c>
+      <c r="I15" t="s">
+        <v>573</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B16" t="s">
+        <v>357</v>
+      </c>
+      <c r="C16" t="s">
+        <v>457</v>
+      </c>
+      <c r="D16" t="s">
+        <v>462</v>
+      </c>
+      <c r="E16" t="s">
+        <v>479</v>
+      </c>
+      <c r="F16" t="s">
+        <v>510</v>
+      </c>
+      <c r="G16" t="s">
+        <v>531</v>
+      </c>
+      <c r="H16" t="s">
+        <v>548</v>
+      </c>
+      <c r="I16" t="s">
+        <v>408</v>
+      </c>
+      <c r="J16" t="s">
+        <v>587</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>433</v>
+      </c>
+      <c r="B17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" t="s">
+        <v>456</v>
+      </c>
+      <c r="D17" t="s">
+        <v>459</v>
+      </c>
+      <c r="E17" t="s">
+        <v>480</v>
+      </c>
+      <c r="F17" t="s">
+        <v>511</v>
+      </c>
+      <c r="G17" t="s">
+        <v>534</v>
+      </c>
+      <c r="H17" t="s">
+        <v>549</v>
+      </c>
+      <c r="I17" t="s">
+        <v>574</v>
+      </c>
+      <c r="J17" t="s">
+        <v>587</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C18" t="s">
+        <v>450</v>
+      </c>
+      <c r="D18" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" t="s">
+        <v>481</v>
+      </c>
+      <c r="F18" t="s">
+        <v>512</v>
+      </c>
+      <c r="G18" t="s">
+        <v>533</v>
+      </c>
+      <c r="H18" t="s">
+        <v>550</v>
+      </c>
+      <c r="I18" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" t="s">
+        <v>588</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C19" t="s">
+        <v>451</v>
+      </c>
+      <c r="D19" t="s">
+        <v>459</v>
+      </c>
+      <c r="E19" t="s">
+        <v>482</v>
+      </c>
+      <c r="F19" t="s">
+        <v>513</v>
+      </c>
+      <c r="G19" t="s">
+        <v>530</v>
+      </c>
+      <c r="H19" t="s">
+        <v>537</v>
+      </c>
+      <c r="I19" t="s">
+        <v>575</v>
+      </c>
+      <c r="J19" t="s">
+        <v>587</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>436</v>
+      </c>
+      <c r="B20" t="s">
+        <v>359</v>
+      </c>
+      <c r="C20" t="s">
+        <v>453</v>
+      </c>
+      <c r="D20" t="s">
+        <v>463</v>
+      </c>
+      <c r="E20" t="s">
+        <v>483</v>
+      </c>
+      <c r="F20" t="s">
+        <v>514</v>
+      </c>
+      <c r="G20" t="s">
+        <v>533</v>
+      </c>
+      <c r="H20" t="s">
+        <v>551</v>
+      </c>
+      <c r="I20" t="s">
+        <v>576</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>437</v>
+      </c>
+      <c r="B21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" t="s">
+        <v>463</v>
+      </c>
+      <c r="E21" t="s">
+        <v>484</v>
+      </c>
+      <c r="F21" t="s">
+        <v>515</v>
+      </c>
+      <c r="G21" t="s">
+        <v>528</v>
+      </c>
+      <c r="H21" t="s">
+        <v>552</v>
+      </c>
+      <c r="I21" t="s">
+        <v>577</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>438</v>
+      </c>
+      <c r="B22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" t="s">
+        <v>458</v>
+      </c>
+      <c r="E22" t="s">
+        <v>485</v>
+      </c>
+      <c r="F22" t="s">
+        <v>516</v>
+      </c>
+      <c r="G22" t="s">
+        <v>528</v>
+      </c>
+      <c r="H22" t="s">
+        <v>553</v>
+      </c>
+      <c r="I22" t="s">
+        <v>578</v>
+      </c>
+      <c r="J22" t="s">
+        <v>590</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>439</v>
+      </c>
+      <c r="B23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" t="s">
+        <v>450</v>
+      </c>
+      <c r="D23" t="s">
+        <v>463</v>
+      </c>
+      <c r="E23" t="s">
+        <v>486</v>
+      </c>
+      <c r="F23" t="s">
+        <v>517</v>
+      </c>
+      <c r="G23" t="s">
+        <v>533</v>
+      </c>
+      <c r="H23" t="s">
+        <v>554</v>
+      </c>
+      <c r="I23" t="s">
+        <v>579</v>
+      </c>
+      <c r="J23" t="s">
+        <v>587</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" t="s">
+        <v>458</v>
+      </c>
+      <c r="E24" t="s">
+        <v>487</v>
+      </c>
+      <c r="F24" t="s">
+        <v>518</v>
+      </c>
+      <c r="G24" t="s">
+        <v>529</v>
+      </c>
+      <c r="H24" t="s">
+        <v>555</v>
+      </c>
+      <c r="I24" t="s">
+        <v>580</v>
+      </c>
+      <c r="J24" t="s">
+        <v>587</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>441</v>
+      </c>
+      <c r="B25" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D25" t="s">
+        <v>458</v>
+      </c>
+      <c r="E25" t="s">
+        <v>488</v>
+      </c>
+      <c r="F25" t="s">
+        <v>519</v>
+      </c>
+      <c r="G25" t="s">
+        <v>528</v>
+      </c>
+      <c r="H25" t="s">
+        <v>541</v>
+      </c>
+      <c r="I25" t="s">
+        <v>581</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>442</v>
+      </c>
+      <c r="B26" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" t="s">
+        <v>458</v>
+      </c>
+      <c r="E26" t="s">
+        <v>489</v>
+      </c>
+      <c r="F26" t="s">
+        <v>520</v>
+      </c>
+      <c r="G26" t="s">
+        <v>530</v>
+      </c>
+      <c r="H26" t="s">
+        <v>556</v>
+      </c>
+      <c r="I26" t="s">
+        <v>582</v>
+      </c>
+      <c r="J26" t="s">
+        <v>590</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>443</v>
+      </c>
+      <c r="B27" t="s">
+        <v>361</v>
+      </c>
+      <c r="C27" t="s">
+        <v>452</v>
+      </c>
+      <c r="D27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E27" t="s">
+        <v>490</v>
+      </c>
+      <c r="F27" t="s">
+        <v>521</v>
+      </c>
+      <c r="G27" t="s">
+        <v>528</v>
+      </c>
+      <c r="H27" t="s">
+        <v>555</v>
+      </c>
+      <c r="I27" t="s">
+        <v>583</v>
+      </c>
+      <c r="J27" t="s">
+        <v>588</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>444</v>
+      </c>
+      <c r="B28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C28" t="s">
+        <v>453</v>
+      </c>
+      <c r="D28" t="s">
+        <v>464</v>
+      </c>
+      <c r="E28" t="s">
+        <v>491</v>
+      </c>
+      <c r="F28" t="s">
+        <v>522</v>
+      </c>
+      <c r="G28" t="s">
+        <v>533</v>
+      </c>
+      <c r="H28" t="s">
+        <v>557</v>
+      </c>
+      <c r="I28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" t="s">
+        <v>590</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>445</v>
+      </c>
+      <c r="B29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C29" t="s">
+        <v>455</v>
+      </c>
+      <c r="D29" t="s">
+        <v>465</v>
+      </c>
+      <c r="E29" t="s">
+        <v>492</v>
+      </c>
+      <c r="F29" t="s">
+        <v>523</v>
+      </c>
+      <c r="G29" t="s">
+        <v>533</v>
+      </c>
+      <c r="H29" t="s">
+        <v>558</v>
+      </c>
+      <c r="I29" t="s">
+        <v>584</v>
+      </c>
+      <c r="J29" t="s">
+        <v>590</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>446</v>
+      </c>
+      <c r="B30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30" t="s">
+        <v>454</v>
+      </c>
+      <c r="D30" t="s">
+        <v>463</v>
+      </c>
+      <c r="E30" t="s">
+        <v>493</v>
+      </c>
+      <c r="F30" t="s">
+        <v>524</v>
+      </c>
+      <c r="G30" t="s">
+        <v>532</v>
+      </c>
+      <c r="H30" t="s">
+        <v>559</v>
+      </c>
+      <c r="I30" t="s">
+        <v>585</v>
+      </c>
+      <c r="J30" t="s">
+        <v>587</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>447</v>
+      </c>
+      <c r="B31" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" t="s">
+        <v>451</v>
+      </c>
+      <c r="D31" t="s">
+        <v>460</v>
+      </c>
+      <c r="E31" t="s">
+        <v>494</v>
+      </c>
+      <c r="F31" t="s">
+        <v>525</v>
+      </c>
+      <c r="G31" t="s">
+        <v>528</v>
+      </c>
+      <c r="H31" t="s">
+        <v>560</v>
+      </c>
+      <c r="I31" t="s">
+        <v>570</v>
+      </c>
+      <c r="J31" t="s">
+        <v>588</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" t="s">
+        <v>461</v>
+      </c>
+      <c r="E32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F32" t="s">
+        <v>526</v>
+      </c>
+      <c r="G32" t="s">
+        <v>535</v>
+      </c>
+      <c r="H32" t="s">
+        <v>561</v>
+      </c>
+      <c r="I32" t="s">
+        <v>586</v>
+      </c>
+      <c r="J32" t="s">
+        <v>589</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" t="s">
+        <v>453</v>
+      </c>
+      <c r="D33" t="s">
+        <v>461</v>
+      </c>
+      <c r="E33" t="s">
+        <v>496</v>
+      </c>
+      <c r="F33" t="s">
+        <v>527</v>
+      </c>
+      <c r="G33" t="s">
+        <v>530</v>
+      </c>
+      <c r="H33" t="s">
+        <v>562</v>
+      </c>
+      <c r="I33" t="s">
+        <v>584</v>
+      </c>
+      <c r="J33" t="s">
+        <v>590</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="40.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>85</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>596</v>
+      </c>
+      <c r="H2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>597</v>
+      </c>
+      <c r="H3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>85</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>598</v>
+      </c>
+      <c r="H4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>85</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>599</v>
+      </c>
+      <c r="H5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>367</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>85</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>600</v>
+      </c>
+      <c r="H6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>597</v>
+      </c>
+      <c r="H7" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>601</v>
+      </c>
+      <c r="H8" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>597</v>
+      </c>
+      <c r="H9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>65</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>602</v>
+      </c>
+      <c r="H10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>597</v>
+      </c>
+      <c r="H11" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
@@ -2567,13 +6112,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>107</v>
       </c>
@@ -2592,45 +6137,100 @@
       <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" t="s">
         <v>117</v>
       </c>
-      <c r="F3" t="s">
-        <v>119</v>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2640,79 +6240,155 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" t="s">
         <v>126</v>
       </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
+      <c r="I5" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2736,28 +6412,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
@@ -2771,10 +6447,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -2789,13 +6465,13 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="J2" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="K2" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2806,10 +6482,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
         <v>36</v>
@@ -2824,48 +6500,48 @@
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
       <c r="F4" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="H4">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J4" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="K4" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2889,34 +6565,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2948,13 +6624,13 @@
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2986,21 +6662,21 @@
         <v>40</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -3018,19 +6694,19 @@
         <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="K4">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/sample_data_workbook_final.xlsx
+++ b/sample_data_workbook_final.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="667">
   <si>
     <t>account_id</t>
   </si>
@@ -92,198 +92,447 @@
     <t>ACCT-00002</t>
   </si>
   <si>
+    <t>ACCT-00003</t>
+  </si>
+  <si>
+    <t>ACCT-00004</t>
+  </si>
+  <si>
+    <t>ACCT-00005</t>
+  </si>
+  <si>
+    <t>ACCT-00006</t>
+  </si>
+  <si>
+    <t>ACCT-00007</t>
+  </si>
+  <si>
+    <t>ACCT-00008</t>
+  </si>
+  <si>
+    <t>ACCT-00009</t>
+  </si>
+  <si>
+    <t>ACCT-00010</t>
+  </si>
+  <si>
+    <t>MegaLogistics Inc.</t>
+  </si>
+  <si>
+    <t>MegaLogistics - Western Division</t>
+  </si>
+  <si>
+    <t>TransGlobal Shipping</t>
+  </si>
+  <si>
+    <t>Trans-Global Shipping Ltd</t>
+  </si>
+  <si>
+    <t>FastFreight Solutions</t>
+  </si>
+  <si>
+    <t>FastFreight Europe GmbH</t>
+  </si>
+  <si>
+    <t>Express Delivery Holdings</t>
+  </si>
+  <si>
+    <t>Express Delivery Japan</t>
+  </si>
+  <si>
+    <t>Express Delivery Service</t>
+  </si>
+  <si>
+    <t>CargoSmart Inc.</t>
+  </si>
+  <si>
+    <t>Logistics</t>
+  </si>
+  <si>
+    <t>Freight</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Courier Services</t>
+  </si>
+  <si>
+    <t>1500 Logistics Way</t>
+  </si>
+  <si>
+    <t>3800 Freight Avenue</t>
+  </si>
+  <si>
+    <t>250 Harbor Drive</t>
+  </si>
+  <si>
+    <t>742 Delivery Street</t>
+  </si>
+  <si>
+    <t>Logistikstraße 24</t>
+  </si>
+  <si>
+    <t>5000 Shipping Plaza</t>
+  </si>
+  <si>
+    <t>3-2-1 Shipping District</t>
+  </si>
+  <si>
+    <t>456 Courier Road</t>
+  </si>
+  <si>
+    <t>800 Transportation Blvd</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>60601</t>
+  </si>
+  <si>
+    <t>80202</t>
+  </si>
+  <si>
+    <t>02210</t>
+  </si>
+  <si>
+    <t>30303</t>
+  </si>
+  <si>
+    <t>10115</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>100-0004</t>
+  </si>
+  <si>
+    <t>60607</t>
+  </si>
+  <si>
+    <t>75201</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Qualified</t>
+  </si>
+  <si>
+    <t>Under Review</t>
+  </si>
+  <si>
+    <t>2024-09-15</t>
+  </si>
+  <si>
+    <t>2024-10-05</t>
+  </si>
+  <si>
+    <t>2024-09-22</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
+  </si>
+  <si>
+    <t>2024-09-25</t>
+  </si>
+  <si>
+    <t>2025-03-28</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>2025-02-16</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>2025-03-25</t>
+  </si>
+  <si>
+    <t>2025-03-15</t>
+  </si>
+  <si>
+    <t>2025-02-01</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>ZoomInfo; D&amp;B; Internal DB</t>
+  </si>
+  <si>
+    <t>ZoomInfo; Internal DB</t>
+  </si>
+  <si>
+    <t>D&amp;B; Internal DB</t>
+  </si>
+  <si>
+    <t>ZoomInfo; Web Scrape</t>
+  </si>
+  <si>
+    <t>ZoomInfo; D&amp;B</t>
+  </si>
+  <si>
+    <t>Web Scrape; D&amp;B</t>
+  </si>
+  <si>
+    <t>ZoomInfo; D&amp;B; Clearbit</t>
+  </si>
+  <si>
+    <t>Web Scrape</t>
+  </si>
+  <si>
+    <t>Parent company with multiple subsidiaries</t>
+  </si>
+  <si>
+    <t>Subsidiary of MegaLogistics Inc.</t>
+  </si>
+  <si>
+    <t>Potential duplicate records in system</t>
+  </si>
+  <si>
+    <t>Possible duplicate of TransGlobal Shipping</t>
+  </si>
+  <si>
+    <t>Incomplete hierarchy information</t>
+  </si>
+  <si>
+    <t>Missing parent relationship to FastFreight Solutions</t>
+  </si>
+  <si>
+    <t>Global parent company</t>
+  </si>
+  <si>
+    <t>Subsidiary of Express Delivery Holdings</t>
+  </si>
+  <si>
+    <t>Not related to Express Delivery Holdings despite similar name</t>
+  </si>
+  <si>
+    <t>Recently acquired SmallHaul LLC (not yet reflected in hierarchy)</t>
+  </si>
+  <si>
+    <t>contact_id</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>last_verified_date</t>
+  </si>
+  <si>
+    <t>preferred_contact_method</t>
+  </si>
+  <si>
+    <t>associated_account_id</t>
+  </si>
+  <si>
+    <t>CONTACT-1001</t>
+  </si>
+  <si>
+    <t>CONTACT-1002</t>
+  </si>
+  <si>
+    <t>CONTACT-2001</t>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+  </si>
+  <si>
+    <t>Head of Operations</t>
+  </si>
+  <si>
+    <t>Director of Procurement</t>
+  </si>
+  <si>
+    <t>Logistics Manager</t>
+  </si>
+  <si>
+    <t>[email protected]</t>
+  </si>
+  <si>
+    <t>555-123-4567</t>
+  </si>
+  <si>
+    <t>555-987-6543</t>
+  </si>
+  <si>
+    <t>555-654-3210</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
+  </si>
+  <si>
+    <t>2024-11-05</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>2025-03-22</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>duns_number</t>
+  </si>
+  <si>
+    <t>total_employees</t>
+  </si>
+  <si>
+    <t>annual_revenue</t>
+  </si>
+  <si>
+    <t>primary_industry</t>
+  </si>
+  <si>
+    <t>last_updated</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>987654321</t>
+  </si>
+  <si>
     <t>Highway Express Logistics</t>
   </si>
   <si>
     <t>Greenfield Haulers</t>
   </si>
   <si>
-    <t>Transportation &amp; Logistics</t>
-  </si>
-  <si>
-    <t>1234 Cargo Way</t>
-  </si>
-  <si>
-    <t>789 Roadrunner Ln</t>
-  </si>
-  <si>
-    <t>Dallas</t>
-  </si>
-  <si>
-    <t>Atlanta</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>75201</t>
-  </si>
-  <si>
-    <t>30301</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Prospect</t>
-  </si>
-  <si>
-    <t>Qualified</t>
-  </si>
-  <si>
-    <t>2024-10-15</t>
+    <t>Freight Transportation</t>
+  </si>
+  <si>
+    <t>Trucking</t>
+  </si>
+  <si>
+    <t>1234 Cargo Way, Dallas, TX</t>
+  </si>
+  <si>
+    <t>789 Roadrunner Ln, Atlanta, GA</t>
   </si>
   <si>
     <t>2024-11-20</t>
   </si>
   <si>
-    <t>2025-03-25</t>
-  </si>
-  <si>
     <t>2025-03-20</t>
   </si>
   <si>
-    <t>2025-04-01</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>ZoomInfo; Internal DB</t>
-  </si>
-  <si>
-    <t>D&amp;B; Internal DB</t>
-  </si>
-  <si>
-    <t>Recent fleet additions reported in Q1.</t>
-  </si>
-  <si>
-    <t>Large off-road fleet potential.</t>
-  </si>
-  <si>
-    <t>contact_id</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>last_verified_date</t>
-  </si>
-  <si>
-    <t>preferred_contact_method</t>
-  </si>
-  <si>
-    <t>associated_account_id</t>
-  </si>
-  <si>
-    <t>CONTACT-1001</t>
-  </si>
-  <si>
-    <t>CONTACT-1002</t>
-  </si>
-  <si>
-    <t>CONTACT-2001</t>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Alice Johnson</t>
-  </si>
-  <si>
-    <t>Head of Operations</t>
-  </si>
-  <si>
-    <t>Director of Procurement</t>
-  </si>
-  <si>
-    <t>Logistics Manager</t>
-  </si>
-  <si>
-    <t>[email protected]</t>
-  </si>
-  <si>
-    <t>555-123-4567</t>
-  </si>
-  <si>
-    <t>555-987-6543</t>
-  </si>
-  <si>
-    <t>555-654-3210</t>
-  </si>
-  <si>
-    <t>2024-10-20</t>
-  </si>
-  <si>
-    <t>2024-11-05</t>
-  </si>
-  <si>
-    <t>2024-12-10</t>
-  </si>
-  <si>
-    <t>2025-03-22</t>
-  </si>
-  <si>
-    <t>2025-03-28</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>duns_number</t>
-  </si>
-  <si>
-    <t>total_employees</t>
-  </si>
-  <si>
-    <t>annual_revenue</t>
-  </si>
-  <si>
-    <t>primary_industry</t>
-  </si>
-  <si>
-    <t>last_updated</t>
-  </si>
-  <si>
-    <t>123456789</t>
-  </si>
-  <si>
-    <t>987654321</t>
-  </si>
-  <si>
-    <t>Freight Transportation</t>
-  </si>
-  <si>
-    <t>Trucking</t>
-  </si>
-  <si>
-    <t>1234 Cargo Way, Dallas, TX</t>
-  </si>
-  <si>
-    <t>789 Roadrunner Ln, Atlanta, GA</t>
-  </si>
-  <si>
     <t>zoominfo_id</t>
   </si>
   <si>
@@ -386,9 +635,6 @@
     <t>Safety Compliance Report Q1 2025</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Company to add 5 new 18-wheelers to fleet in Q2.</t>
   </si>
   <si>
@@ -410,9 +656,6 @@
     <t>2025-03-10</t>
   </si>
   <si>
-    <t>2025-03-15</t>
-  </si>
-  <si>
     <t>2025-05-15</t>
   </si>
   <si>
@@ -488,7 +731,7 @@
     <t>2025-03-05</t>
   </si>
   <si>
-    <t>2025-04-02 12:27:45</t>
+    <t>2025-04-02 13:18:36</t>
   </si>
   <si>
     <t>2025-05-30</t>
@@ -527,9 +770,6 @@
     <t>success_potential</t>
   </si>
   <si>
-    <t>ACCT-00003</t>
-  </si>
-  <si>
     <t>Sunset Delivery Services</t>
   </si>
   <si>
@@ -1091,64 +1331,34 @@
     <t>duplicate_status</t>
   </si>
   <si>
-    <t>ACbf3279be</t>
-  </si>
-  <si>
-    <t>AC658a7681</t>
-  </si>
-  <si>
-    <t>ACa1a3b3e0</t>
-  </si>
-  <si>
-    <t>AC2a3638c6</t>
-  </si>
-  <si>
-    <t>AC21fea92a</t>
-  </si>
-  <si>
-    <t>AC7f09016f</t>
-  </si>
-  <si>
-    <t>AC2cf5707e</t>
-  </si>
-  <si>
-    <t>AC26aa7cc7</t>
-  </si>
-  <si>
-    <t>ACa56e8884</t>
-  </si>
-  <si>
-    <t>ACb256f53c</t>
-  </si>
-  <si>
-    <t>MegaLogistics Inc.</t>
-  </si>
-  <si>
-    <t>MegaLogistics - Western Division</t>
-  </si>
-  <si>
-    <t>TransGlobal Shipping</t>
-  </si>
-  <si>
-    <t>Trans-Global Shipping Ltd</t>
-  </si>
-  <si>
-    <t>FastFreight Solutions</t>
-  </si>
-  <si>
-    <t>FastFreight Europe GmbH</t>
-  </si>
-  <si>
-    <t>Express Delivery Holdings</t>
-  </si>
-  <si>
-    <t>Express Delivery Japan</t>
-  </si>
-  <si>
-    <t>Express Delivery Service</t>
-  </si>
-  <si>
-    <t>CargoSmart Inc.</t>
+    <t>ACb8a60db7</t>
+  </si>
+  <si>
+    <t>ACa8b6bdef</t>
+  </si>
+  <si>
+    <t>AC72f20448</t>
+  </si>
+  <si>
+    <t>ACe461de04</t>
+  </si>
+  <si>
+    <t>AC3a80b8b3</t>
+  </si>
+  <si>
+    <t>AC6207f6ca</t>
+  </si>
+  <si>
+    <t>AC4ad24837</t>
+  </si>
+  <si>
+    <t>ACa1be057f</t>
+  </si>
+  <si>
+    <t>AC650b0bee</t>
+  </si>
+  <si>
+    <t>ACfc40b007</t>
   </si>
   <si>
     <t>megalogistics.com</t>
@@ -1178,18 +1388,6 @@
     <t>cargosmart.com</t>
   </si>
   <si>
-    <t>Logistics</t>
-  </si>
-  <si>
-    <t>Freight</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>Courier Services</t>
-  </si>
-  <si>
     <t>$750M</t>
   </si>
   <si>
@@ -1241,27 +1439,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>2025-03-18</t>
-  </si>
-  <si>
-    <t>2025-02-16</t>
-  </si>
-  <si>
-    <t>2025-03-21</t>
-  </si>
-  <si>
-    <t>2025-03-08</t>
-  </si>
-  <si>
-    <t>2024-12-03</t>
-  </si>
-  <si>
-    <t>2025-02-01</t>
-  </si>
-  <si>
-    <t>2025-03-23</t>
-  </si>
-  <si>
     <t>Potential Duplicate</t>
   </si>
   <si>
@@ -1286,334 +1463,376 @@
     <t>last_contact_date</t>
   </si>
   <si>
-    <t>CT7f4f8700</t>
-  </si>
-  <si>
-    <t>CT72543cf0</t>
-  </si>
-  <si>
-    <t>CTf93da17d</t>
-  </si>
-  <si>
-    <t>CT8c5d3329</t>
-  </si>
-  <si>
-    <t>CTa66c0a0b</t>
-  </si>
-  <si>
-    <t>CT23cea9f2</t>
-  </si>
-  <si>
-    <t>CT32ecb26a</t>
-  </si>
-  <si>
-    <t>CTaa8cb7ed</t>
-  </si>
-  <si>
-    <t>CTce624d1f</t>
-  </si>
-  <si>
-    <t>CT4badb4bf</t>
-  </si>
-  <si>
-    <t>CT92edf938</t>
-  </si>
-  <si>
-    <t>CT35fa91ec</t>
-  </si>
-  <si>
-    <t>CTab5e647d</t>
-  </si>
-  <si>
-    <t>CT58796f05</t>
-  </si>
-  <si>
-    <t>CT40959aff</t>
-  </si>
-  <si>
-    <t>CTd15333cf</t>
-  </si>
-  <si>
-    <t>CT35359c55</t>
-  </si>
-  <si>
-    <t>CT2ee5767f</t>
-  </si>
-  <si>
-    <t>CT999d7e62</t>
-  </si>
-  <si>
-    <t>CTccf814fe</t>
-  </si>
-  <si>
-    <t>CT45907402</t>
-  </si>
-  <si>
-    <t>CT20f6d8cb</t>
-  </si>
-  <si>
-    <t>CT21cb31dc</t>
-  </si>
-  <si>
-    <t>CT18f5cb00</t>
-  </si>
-  <si>
-    <t>CTdc03f9ac</t>
-  </si>
-  <si>
-    <t>CTa8377da6</t>
-  </si>
-  <si>
-    <t>CTcc9f91ba</t>
-  </si>
-  <si>
-    <t>CT02af880d</t>
-  </si>
-  <si>
-    <t>CTdf949376</t>
-  </si>
-  <si>
-    <t>CT351fbf89</t>
-  </si>
-  <si>
-    <t>CT263d4aac</t>
-  </si>
-  <si>
-    <t>CTc898b685</t>
+    <t>CTbd27bcfb</t>
+  </si>
+  <si>
+    <t>CTc1be396b</t>
+  </si>
+  <si>
+    <t>CTfe4f5333</t>
+  </si>
+  <si>
+    <t>CTe58c364b</t>
+  </si>
+  <si>
+    <t>CT90aa4de1</t>
+  </si>
+  <si>
+    <t>CT7d047873</t>
+  </si>
+  <si>
+    <t>CTa406dea1</t>
+  </si>
+  <si>
+    <t>CT7358d8c3</t>
+  </si>
+  <si>
+    <t>CT9c5f3b27</t>
+  </si>
+  <si>
+    <t>CT78229c3a</t>
+  </si>
+  <si>
+    <t>CTc1760a64</t>
+  </si>
+  <si>
+    <t>CT2d68efbc</t>
+  </si>
+  <si>
+    <t>CT00afc022</t>
+  </si>
+  <si>
+    <t>CTb4ab9f70</t>
+  </si>
+  <si>
+    <t>CTc9f5bd39</t>
+  </si>
+  <si>
+    <t>CT1c9364bc</t>
+  </si>
+  <si>
+    <t>CT7e7f8d7b</t>
+  </si>
+  <si>
+    <t>CTf02c935b</t>
+  </si>
+  <si>
+    <t>CT2d075e3d</t>
+  </si>
+  <si>
+    <t>CT5c3f25cb</t>
+  </si>
+  <si>
+    <t>CT613c0023</t>
+  </si>
+  <si>
+    <t>CT3e38e324</t>
+  </si>
+  <si>
+    <t>CTac3d6f46</t>
+  </si>
+  <si>
+    <t>CTf2834e1a</t>
+  </si>
+  <si>
+    <t>CTa62cc9a7</t>
+  </si>
+  <si>
+    <t>CTc7ef45c3</t>
+  </si>
+  <si>
+    <t>CTf2d3de85</t>
+  </si>
+  <si>
+    <t>CT71919f85</t>
+  </si>
+  <si>
+    <t>CT06157a33</t>
+  </si>
+  <si>
+    <t>CT2c99e377</t>
+  </si>
+  <si>
+    <t>CT75e86015</t>
+  </si>
+  <si>
+    <t>CT27a70042</t>
+  </si>
+  <si>
+    <t>CTf537309e</t>
+  </si>
+  <si>
+    <t>CT3eb5658b</t>
+  </si>
+  <si>
+    <t>CTdb806a6d</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t>Sarah</t>
   </si>
   <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
     <t>Emma</t>
   </si>
   <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
     <t>Michael</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
     <t>Brown</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
     <t>Wilson</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>sarah.brown@megalogistics.com</t>
-  </si>
-  <si>
-    <t>emma.wilson@megalogistics.com</t>
-  </si>
-  <si>
-    <t>lisa.wilson@megalogistics.com</t>
-  </si>
-  <si>
-    <t>david.smith@west.megalogistics.com</t>
-  </si>
-  <si>
-    <t>lisa.wilson@west.megalogistics.com</t>
-  </si>
-  <si>
-    <t>john.jones@west.megalogistics.com</t>
-  </si>
-  <si>
-    <t>jennifer.brown@transglobalshipping.com</t>
-  </si>
-  <si>
-    <t>emma.miller@transglobalshipping.com</t>
-  </si>
-  <si>
-    <t>robert.brown@transglobalshipping.com</t>
-  </si>
-  <si>
-    <t>lisa.williams@transglobalshipping.com</t>
-  </si>
-  <si>
-    <t>robert.davis@transglobalshipping.com</t>
-  </si>
-  <si>
-    <t>john.miller@fastfreight.com</t>
-  </si>
-  <si>
-    <t>michael.brown@fastfreight.com</t>
-  </si>
-  <si>
-    <t>michael.miller@fastfreight.com</t>
-  </si>
-  <si>
-    <t>robert.wilson@fastfreight.com</t>
-  </si>
-  <si>
-    <t>sarah.wilson@fastfreight.eu</t>
-  </si>
-  <si>
-    <t>emma.wilson@fastfreight.eu</t>
-  </si>
-  <si>
-    <t>david.williams@expressdelivery.com</t>
-  </si>
-  <si>
-    <t>emma.williams@expressdelivery.com</t>
-  </si>
-  <si>
-    <t>david.brown@expressdelivery.com</t>
-  </si>
-  <si>
-    <t>sarah.williams@expressdelivery.jp</t>
-  </si>
-  <si>
-    <t>lisa.brown@expressdelivery.jp</t>
-  </si>
-  <si>
-    <t>jennifer.brown@expressdelivery.jp</t>
-  </si>
-  <si>
-    <t>john.brown@expressdelivery.jp</t>
-  </si>
-  <si>
-    <t>lisa.brown@eds-courier.com</t>
-  </si>
-  <si>
-    <t>david.davis@eds-courier.com</t>
-  </si>
-  <si>
-    <t>jennifer.johnson@eds-courier.com</t>
-  </si>
-  <si>
-    <t>john.williams@eds-courier.com</t>
-  </si>
-  <si>
-    <t>emma.smith@cargosmart.com</t>
-  </si>
-  <si>
-    <t>lisa.jones@cargosmart.com</t>
-  </si>
-  <si>
-    <t>david.jones@cargosmart.com</t>
-  </si>
-  <si>
-    <t>+1-573-367-4366</t>
-  </si>
-  <si>
-    <t>+1-899-309-9721</t>
-  </si>
-  <si>
-    <t>+1-295-688-6492</t>
-  </si>
-  <si>
-    <t>+1-249-802-8815</t>
-  </si>
-  <si>
-    <t>+1-312-504-4881</t>
-  </si>
-  <si>
-    <t>+1-549-422-1079</t>
-  </si>
-  <si>
-    <t>+1-834-968-6548</t>
-  </si>
-  <si>
-    <t>+1-444-761-2654</t>
-  </si>
-  <si>
-    <t>+1-317-972-2593</t>
-  </si>
-  <si>
-    <t>+1-617-429-3266</t>
-  </si>
-  <si>
-    <t>+1-453-877-5242</t>
-  </si>
-  <si>
-    <t>+1-834-121-2712</t>
-  </si>
-  <si>
-    <t>+1-420-234-3670</t>
-  </si>
-  <si>
-    <t>+1-696-222-8825</t>
-  </si>
-  <si>
-    <t>+1-476-388-4926</t>
-  </si>
-  <si>
-    <t>+1-437-809-9495</t>
-  </si>
-  <si>
-    <t>+1-795-986-6843</t>
-  </si>
-  <si>
-    <t>+1-903-480-3580</t>
-  </si>
-  <si>
-    <t>+1-492-849-3487</t>
-  </si>
-  <si>
-    <t>+1-582-509-3231</t>
-  </si>
-  <si>
-    <t>+1-868-775-2745</t>
-  </si>
-  <si>
-    <t>+1-940-899-2358</t>
-  </si>
-  <si>
-    <t>+1-948-682-8252</t>
-  </si>
-  <si>
-    <t>+1-971-260-6306</t>
-  </si>
-  <si>
-    <t>+1-839-152-8511</t>
-  </si>
-  <si>
-    <t>+1-392-431-2130</t>
-  </si>
-  <si>
-    <t>+1-204-449-7443</t>
-  </si>
-  <si>
-    <t>+1-676-471-1338</t>
-  </si>
-  <si>
-    <t>+1-518-356-8362</t>
-  </si>
-  <si>
-    <t>+1-992-181-5471</t>
-  </si>
-  <si>
-    <t>+1-826-544-3399</t>
+    <t>david.johnson@megalogistics.com</t>
+  </si>
+  <si>
+    <t>lisa.brown@megalogistics.com</t>
+  </si>
+  <si>
+    <t>robert.johnson@megalogistics.com</t>
+  </si>
+  <si>
+    <t>john.jones@megalogistics.com</t>
+  </si>
+  <si>
+    <t>sarah.brown@west.megalogistics.com</t>
+  </si>
+  <si>
+    <t>robert.miller@west.megalogistics.com</t>
+  </si>
+  <si>
+    <t>lisa.brown@west.megalogistics.com</t>
+  </si>
+  <si>
+    <t>lisa.johnson@west.megalogistics.com</t>
+  </si>
+  <si>
+    <t>sarah.williams@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>jennifer.johnson@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>emma.brown@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>emma.wilson@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>lisa.johnson@transglobalshipping.com</t>
+  </si>
+  <si>
+    <t>jennifer.brown@fastfreight.com</t>
+  </si>
+  <si>
+    <t>michael.jones@fastfreight.com</t>
+  </si>
+  <si>
+    <t>emma.miller@fastfreight.com</t>
+  </si>
+  <si>
+    <t>jennifer.williams@fastfreight.com</t>
+  </si>
+  <si>
+    <t>david.miller@fastfreight.eu</t>
+  </si>
+  <si>
+    <t>michael.davis@fastfreight.eu</t>
+  </si>
+  <si>
+    <t>robert.jones@fastfreight.eu</t>
+  </si>
+  <si>
+    <t>jennifer.jones@expressdelivery.com</t>
+  </si>
+  <si>
+    <t>michael.miller@expressdelivery.com</t>
+  </si>
+  <si>
+    <t>robert.miller@expressdelivery.com</t>
+  </si>
+  <si>
+    <t>david.smith@expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>john.wilson@expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>lisa.williams@expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>emma.brown@expressdelivery.jp</t>
+  </si>
+  <si>
+    <t>emma.davis@eds-courier.com</t>
+  </si>
+  <si>
+    <t>jennifer.miller@eds-courier.com</t>
+  </si>
+  <si>
+    <t>john.wilson@eds-courier.com</t>
+  </si>
+  <si>
+    <t>david.johnson@eds-courier.com</t>
+  </si>
+  <si>
+    <t>sarah.williams@cargosmart.com</t>
+  </si>
+  <si>
+    <t>michael.smith@cargosmart.com</t>
+  </si>
+  <si>
+    <t>jennifer.johnson@cargosmart.com</t>
+  </si>
+  <si>
+    <t>+1-543-575-5092</t>
+  </si>
+  <si>
+    <t>+1-490-915-8410</t>
+  </si>
+  <si>
+    <t>+1-343-239-5055</t>
+  </si>
+  <si>
+    <t>+1-307-355-6456</t>
+  </si>
+  <si>
+    <t>+1-922-335-4575</t>
+  </si>
+  <si>
+    <t>+1-310-669-6305</t>
+  </si>
+  <si>
+    <t>+1-974-809-7432</t>
+  </si>
+  <si>
+    <t>+1-417-340-2297</t>
+  </si>
+  <si>
+    <t>+1-950-856-8415</t>
+  </si>
+  <si>
+    <t>+1-383-210-2491</t>
+  </si>
+  <si>
+    <t>+1-987-116-7870</t>
+  </si>
+  <si>
+    <t>+1-415-145-2659</t>
+  </si>
+  <si>
+    <t>+1-912-323-7464</t>
+  </si>
+  <si>
+    <t>+1-553-506-3286</t>
+  </si>
+  <si>
+    <t>+1-443-956-5057</t>
+  </si>
+  <si>
+    <t>+1-471-444-6506</t>
+  </si>
+  <si>
+    <t>+1-900-442-7851</t>
+  </si>
+  <si>
+    <t>+1-371-532-1253</t>
+  </si>
+  <si>
+    <t>+1-224-126-6856</t>
+  </si>
+  <si>
+    <t>+1-360-232-7889</t>
+  </si>
+  <si>
+    <t>+1-636-454-6942</t>
+  </si>
+  <si>
+    <t>+1-605-781-9936</t>
+  </si>
+  <si>
+    <t>+1-454-148-4839</t>
+  </si>
+  <si>
+    <t>+1-980-485-2155</t>
+  </si>
+  <si>
+    <t>+1-392-149-2208</t>
+  </si>
+  <si>
+    <t>+1-710-652-3850</t>
+  </si>
+  <si>
+    <t>+1-330-424-9802</t>
+  </si>
+  <si>
+    <t>+1-339-265-4357</t>
+  </si>
+  <si>
+    <t>+1-549-161-2177</t>
+  </si>
+  <si>
+    <t>+1-762-730-1729</t>
+  </si>
+  <si>
+    <t>+1-349-187-3715</t>
+  </si>
+  <si>
+    <t>+1-443-804-9488</t>
+  </si>
+  <si>
+    <t>+1-355-525-2606</t>
+  </si>
+  <si>
+    <t>+1-711-619-1189</t>
+  </si>
+  <si>
+    <t>Supply Chain Manager</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>Transportation Manager</t>
+  </si>
+  <si>
+    <t>Logistics Director</t>
   </si>
   <si>
     <t>Fleet Manager</t>
@@ -1622,187 +1841,157 @@
     <t>VP of Operations</t>
   </si>
   <si>
-    <t>COO</t>
-  </si>
-  <si>
     <t>CFO</t>
   </si>
   <si>
-    <t>Supply Chain Manager</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>Logistics Director</t>
-  </si>
-  <si>
-    <t>Transportation Manager</t>
+    <t>linkedin.com/in/davidjohnson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/lisabrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/robertjohnson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/johnjones</t>
   </si>
   <si>
     <t>linkedin.com/in/sarahbrown</t>
   </si>
   <si>
+    <t>linkedin.com/in/robertmiller</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/lisajohnson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/sarahwilliams</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/jenniferjohnson</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/emmabrown</t>
+  </si>
+  <si>
     <t>linkedin.com/in/emmawilson</t>
   </si>
   <si>
-    <t>linkedin.com/in/lisawilson</t>
+    <t>linkedin.com/in/jenniferbrown</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/michaeljones</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/emmamiller</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/jenniferwilliams</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/davidmiller</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/michaeldavis</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/robertjones</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/jenniferjones</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/michaelmiller</t>
   </si>
   <si>
     <t>linkedin.com/in/davidsmith</t>
   </si>
   <si>
-    <t>linkedin.com/in/johnjones</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/jenniferbrown</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/emmamiller</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/robertbrown</t>
+    <t>linkedin.com/in/johnwilson</t>
   </si>
   <si>
     <t>linkedin.com/in/lisawilliams</t>
   </si>
   <si>
-    <t>linkedin.com/in/robertdavis</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/johnmiller</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/michaelbrown</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/michaelmiller</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/robertwilson</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/sarahwilson</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/davidwilliams</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/emmawilliams</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/davidbrown</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/sarahwilliams</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/lisabrown</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/johnbrown</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/daviddavis</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/jenniferjohnson</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/johnwilliams</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/emmasmith</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/lisajones</t>
-  </si>
-  <si>
-    <t>linkedin.com/in/davidjones</t>
-  </si>
-  <si>
-    <t>2025-03-14</t>
-  </si>
-  <si>
-    <t>2025-01-03</t>
+    <t>linkedin.com/in/emmadavis</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/jennifermiller</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/michaelsmith</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>2025-01-28</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
+  </si>
+  <si>
+    <t>2025-01-16</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
+  </si>
+  <si>
+    <t>2025-03-19</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-02</t>
+  </si>
+  <si>
+    <t>2025-02-28</t>
+  </si>
+  <si>
+    <t>2025-03-24</t>
+  </si>
+  <si>
+    <t>2025-02-07</t>
+  </si>
+  <si>
+    <t>2025-01-14</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
   </si>
   <si>
     <t>2025-01-08</t>
   </si>
   <si>
-    <t>2025-02-27</t>
-  </si>
-  <si>
-    <t>2025-02-05</t>
-  </si>
-  <si>
-    <t>2025-03-03</t>
-  </si>
-  <si>
-    <t>2025-02-14</t>
-  </si>
-  <si>
-    <t>2025-03-02</t>
-  </si>
-  <si>
-    <t>2025-02-28</t>
-  </si>
-  <si>
-    <t>2025-01-19</t>
-  </si>
-  <si>
-    <t>2025-03-26</t>
-  </si>
-  <si>
-    <t>2025-02-19</t>
-  </si>
-  <si>
-    <t>2025-03-12</t>
-  </si>
-  <si>
-    <t>2025-02-08</t>
-  </si>
-  <si>
-    <t>2025-02-12</t>
-  </si>
-  <si>
-    <t>2025-03-30</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>2025-01-14</t>
-  </si>
-  <si>
-    <t>2025-02-11</t>
-  </si>
-  <si>
-    <t>2025-01-07</t>
+    <t>2025-03-09</t>
   </si>
   <si>
     <t>2025-01-20</t>
   </si>
   <si>
-    <t>2025-01-24</t>
-  </si>
-  <si>
-    <t>2025-03-07</t>
-  </si>
-  <si>
-    <t>2025-02-23</t>
+    <t>2025-01-05</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-02-10</t>
+  </si>
+  <si>
+    <t>Initial outreach made</t>
   </si>
   <si>
     <t>Technical contact</t>
   </si>
   <si>
+    <t>Responded positively</t>
+  </si>
+  <si>
     <t>Key decision maker</t>
-  </si>
-  <si>
-    <t>Initial outreach made</t>
-  </si>
-  <si>
-    <t>Responded positively</t>
   </si>
   <si>
     <t>Potential duplicate contact</t>
@@ -2199,7 +2388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2266,55 +2455,55 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="P2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q2" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2322,55 +2511,503 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>58</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" t="s">
+        <v>83</v>
+      </c>
+      <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4">
+        <v>80</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5">
+        <v>85</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D3">
-        <v>19</v>
-      </c>
-      <c r="E3">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6">
+        <v>88</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P7">
+        <v>75</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>110</v>
+      </c>
+      <c r="R7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8">
+        <v>93</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>111</v>
+      </c>
+      <c r="R8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" t="s">
+        <v>89</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9">
+        <v>85</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>108</v>
+      </c>
+      <c r="R9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3">
-        <v>82</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" t="s">
-        <v>44</v>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10">
+        <v>65</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>65</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" t="s">
+        <v>101</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>109</v>
+      </c>
+      <c r="R11" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2394,28 +3031,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>199</v>
+        <v>279</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2423,22 +3060,22 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H2">
         <v>97.5</v>
@@ -2447,7 +3084,7 @@
         <v>90</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2455,22 +3092,22 @@
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2479,7 +3116,7 @@
         <v>95</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2487,22 +3124,22 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H4">
         <v>2.5</v>
@@ -2511,7 +3148,7 @@
         <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2519,22 +3156,22 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H5">
         <v>18.5</v>
@@ -2543,7 +3180,7 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2551,22 +3188,22 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H6">
         <v>95</v>
@@ -2575,7 +3212,7 @@
         <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2583,22 +3220,22 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="H7">
         <v>90</v>
@@ -2607,7 +3244,7 @@
         <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2615,22 +3252,22 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D8" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="H8">
         <v>96</v>
@@ -2639,7 +3276,7 @@
         <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2647,22 +3284,22 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="H9">
         <v>4.5</v>
@@ -2671,7 +3308,7 @@
         <v>5</v>
       </c>
       <c r="J9" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2679,22 +3316,22 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="H10">
         <v>55</v>
@@ -2703,7 +3340,7 @@
         <v>72</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2711,22 +3348,22 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="H11">
         <v>92</v>
@@ -2735,30 +3372,30 @@
         <v>90</v>
       </c>
       <c r="J11" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G12" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="H12">
         <v>75</v>
@@ -2767,30 +3404,30 @@
         <v>90</v>
       </c>
       <c r="J12" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G13" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="H13">
         <v>80</v>
@@ -2799,30 +3436,30 @@
         <v>95</v>
       </c>
       <c r="J13" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="H14">
         <v>8.5</v>
@@ -2831,30 +3468,30 @@
         <v>5</v>
       </c>
       <c r="J14" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="H15">
         <v>70</v>
@@ -2863,30 +3500,30 @@
         <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G16" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="H16">
         <v>85</v>
@@ -2895,7 +3532,7 @@
         <v>90</v>
       </c>
       <c r="J16" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2913,48 +3550,48 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>294</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>218</v>
+        <v>298</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="C2">
         <v>92.5</v>
@@ -2969,15 +3606,15 @@
         <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
       <c r="C3">
         <v>97</v>
@@ -2992,15 +3629,15 @@
         <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="C4">
         <v>3.5</v>
@@ -3015,15 +3652,15 @@
         <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3038,7 +3675,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="H5">
         <v>1.8</v>
@@ -3046,10 +3683,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="C6">
         <v>18.5</v>
@@ -3061,7 +3698,7 @@
         <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>211</v>
+        <v>291</v>
       </c>
       <c r="I6">
         <v>20.5</v>
@@ -3078,10 +3715,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="C7">
         <v>95</v>
@@ -3096,7 +3733,7 @@
         <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="H7">
         <v>92.5</v>
@@ -3117,121 +3754,121 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>310</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>232</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>319</v>
       </c>
       <c r="D3" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="E3" t="s">
-        <v>251</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
-        <v>252</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D5" t="s">
-        <v>247</v>
+        <v>327</v>
       </c>
       <c r="E5" t="s">
-        <v>253</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>206</v>
+        <v>286</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>322</v>
       </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
-        <v>254</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>207</v>
+        <v>287</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>323</v>
       </c>
       <c r="D7" t="s">
-        <v>249</v>
+        <v>329</v>
       </c>
       <c r="E7" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3261,37 +3898,37 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>336</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>261</v>
+        <v>341</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>262</v>
+        <v>342</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>263</v>
+        <v>343</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>266</v>
+        <v>346</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -3299,306 +3936,306 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>361</v>
       </c>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="G2" t="s">
-        <v>308</v>
+        <v>388</v>
       </c>
       <c r="H2">
         <v>92</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>395</v>
       </c>
       <c r="J2" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="K2" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="L2" t="s">
-        <v>336</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="C3" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>381</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>389</v>
       </c>
       <c r="H3">
         <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="J3" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="K3" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="L3" t="s">
-        <v>337</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>356</v>
       </c>
       <c r="C4" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>376</v>
       </c>
       <c r="F4" t="s">
-        <v>302</v>
+        <v>382</v>
       </c>
       <c r="G4" t="s">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="H4">
         <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="J4" t="s">
-        <v>325</v>
+        <v>405</v>
       </c>
       <c r="K4" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="L4" t="s">
-        <v>338</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>370</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
-        <v>303</v>
+        <v>383</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>75</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>398</v>
       </c>
       <c r="J5" t="s">
-        <v>326</v>
+        <v>406</v>
       </c>
       <c r="K5" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="L5" t="s">
-        <v>339</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="D6" t="s">
-        <v>291</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>384</v>
       </c>
       <c r="G6" t="s">
-        <v>311</v>
+        <v>391</v>
       </c>
       <c r="H6">
         <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>319</v>
+        <v>399</v>
       </c>
       <c r="J6" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="K6" t="s">
-        <v>333</v>
+        <v>413</v>
       </c>
       <c r="L6" t="s">
-        <v>340</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>286</v>
+        <v>366</v>
       </c>
       <c r="D7" t="s">
-        <v>292</v>
+        <v>372</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>374</v>
       </c>
       <c r="F7" t="s">
-        <v>305</v>
+        <v>385</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>392</v>
       </c>
       <c r="H7">
         <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="J7" t="s">
-        <v>327</v>
+        <v>407</v>
       </c>
       <c r="K7" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="L7" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>287</v>
+        <v>367</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>373</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
       <c r="F8" t="s">
-        <v>306</v>
+        <v>386</v>
       </c>
       <c r="G8" t="s">
-        <v>313</v>
+        <v>393</v>
       </c>
       <c r="H8">
         <v>98</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>401</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
+        <v>408</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>368</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>369</v>
       </c>
       <c r="E9" t="s">
-        <v>299</v>
+        <v>379</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
+        <v>387</v>
       </c>
       <c r="G9" t="s">
-        <v>314</v>
+        <v>394</v>
       </c>
       <c r="H9">
         <v>94</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>402</v>
       </c>
       <c r="J9" t="s">
-        <v>323</v>
+        <v>403</v>
       </c>
       <c r="K9" t="s">
-        <v>335</v>
+        <v>415</v>
       </c>
       <c r="L9" t="s">
-        <v>343</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3619,69 +4256,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>345</v>
+        <v>425</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>346</v>
+        <v>426</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>347</v>
+        <v>427</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>348</v>
+        <v>428</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="F2" t="s">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="H2" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="I2" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -3693,42 +4330,42 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>444</v>
       </c>
       <c r="F3" t="s">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="H3" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="I3" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3740,36 +4377,36 @@
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>403</v>
+        <v>93</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="F4" t="s">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="H4" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="I4" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3781,36 +4418,36 @@
         <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>404</v>
+        <v>94</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>375</v>
+        <v>445</v>
       </c>
       <c r="F5" t="s">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="H5" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="I5" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="J5">
         <v>85</v>
@@ -3822,36 +4459,36 @@
         <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="N5" t="b">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>376</v>
+        <v>446</v>
       </c>
       <c r="F6" t="s">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="I6" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -3863,42 +4500,42 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>406</v>
+        <v>96</v>
       </c>
       <c r="N6" t="b">
         <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
       <c r="E7" t="s">
-        <v>377</v>
+        <v>447</v>
       </c>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="H7" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="I7" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -3910,36 +4547,36 @@
         <v>3</v>
       </c>
       <c r="M7" t="s">
-        <v>407</v>
+        <v>97</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="H8" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="I8" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3951,42 +4588,42 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="N8" t="b">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="D9" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="E9" t="s">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="F9" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="H9" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="I9" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="J9">
         <v>72</v>
@@ -3998,36 +4635,36 @@
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="N9" t="b">
         <v>1</v>
       </c>
       <c r="O9" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>380</v>
+        <v>450</v>
       </c>
       <c r="F10" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="H10" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="I10" t="s">
-        <v>402</v>
+        <v>468</v>
       </c>
       <c r="J10">
         <v>65</v>
@@ -4039,36 +4676,36 @@
         <v>3</v>
       </c>
       <c r="M10" t="s">
-        <v>408</v>
+        <v>100</v>
       </c>
       <c r="N10" t="b">
         <v>1</v>
       </c>
       <c r="O10" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>381</v>
+        <v>451</v>
       </c>
       <c r="F11" t="s">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="I11" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4080,13 +4717,13 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>409</v>
+        <v>101</v>
       </c>
       <c r="N11" t="b">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4096,7 +4733,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4104,1241 +4741,1355 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>349</v>
+        <v>429</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>352</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="B2" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="C2" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="D2" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="E2" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="F2" t="s">
-        <v>497</v>
+        <v>562</v>
       </c>
       <c r="G2" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="H2" t="s">
-        <v>536</v>
+        <v>604</v>
       </c>
       <c r="I2" t="s">
-        <v>563</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="C3" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="D3" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="E3" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="F3" t="s">
-        <v>498</v>
+        <v>563</v>
       </c>
       <c r="G3" t="s">
-        <v>529</v>
+        <v>597</v>
       </c>
       <c r="H3" t="s">
-        <v>537</v>
+        <v>605</v>
       </c>
       <c r="I3" t="s">
-        <v>564</v>
+        <v>630</v>
       </c>
       <c r="J3" t="s">
-        <v>588</v>
+        <v>651</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="D4" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="E4" t="s">
-        <v>468</v>
+        <v>530</v>
       </c>
       <c r="F4" t="s">
-        <v>499</v>
+        <v>564</v>
       </c>
       <c r="G4" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="H4" t="s">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="I4" t="s">
-        <v>565</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>433</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>515</v>
       </c>
       <c r="D5" t="s">
-        <v>460</v>
+        <v>522</v>
       </c>
       <c r="E5" t="s">
-        <v>469</v>
+        <v>531</v>
       </c>
       <c r="F5" t="s">
-        <v>500</v>
+        <v>565</v>
       </c>
       <c r="G5" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="H5" t="s">
-        <v>539</v>
+        <v>607</v>
       </c>
       <c r="I5" t="s">
-        <v>566</v>
+        <v>630</v>
+      </c>
+      <c r="J5" t="s">
+        <v>653</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="C6" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="D6" t="s">
-        <v>459</v>
+        <v>521</v>
       </c>
       <c r="E6" t="s">
-        <v>470</v>
+        <v>532</v>
       </c>
       <c r="F6" t="s">
-        <v>501</v>
+        <v>566</v>
       </c>
       <c r="G6" t="s">
-        <v>529</v>
+        <v>600</v>
       </c>
       <c r="H6" t="s">
-        <v>538</v>
+        <v>608</v>
       </c>
       <c r="I6" t="s">
-        <v>126</v>
+        <v>631</v>
       </c>
       <c r="J6" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>454</v>
+        <v>514</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>523</v>
       </c>
       <c r="E7" t="s">
-        <v>471</v>
+        <v>533</v>
       </c>
       <c r="F7" t="s">
-        <v>502</v>
+        <v>567</v>
       </c>
       <c r="G7" t="s">
-        <v>529</v>
+        <v>601</v>
       </c>
       <c r="H7" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="I7" t="s">
-        <v>151</v>
+        <v>632</v>
       </c>
       <c r="J7" t="s">
-        <v>588</v>
+        <v>650</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="C8" t="s">
-        <v>455</v>
+        <v>513</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="E8" t="s">
-        <v>472</v>
+        <v>534</v>
       </c>
       <c r="F8" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="G8" t="s">
-        <v>532</v>
+        <v>600</v>
       </c>
       <c r="H8" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="I8" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="J8" t="s">
-        <v>589</v>
+        <v>652</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>451</v>
+        <v>513</v>
       </c>
       <c r="D9" t="s">
-        <v>462</v>
+        <v>520</v>
       </c>
       <c r="E9" t="s">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="F9" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="G9" t="s">
-        <v>531</v>
+        <v>599</v>
       </c>
       <c r="H9" t="s">
-        <v>542</v>
+        <v>610</v>
       </c>
       <c r="I9" t="s">
-        <v>568</v>
+        <v>231</v>
       </c>
       <c r="J9" t="s">
-        <v>590</v>
+        <v>651</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="D10" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="E10" t="s">
-        <v>472</v>
+        <v>536</v>
       </c>
       <c r="F10" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="G10" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="H10" t="s">
-        <v>541</v>
+        <v>611</v>
       </c>
       <c r="I10" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="J10" t="s">
-        <v>591</v>
+        <v>652</v>
       </c>
       <c r="K10">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>410</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="D11" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="E11" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="F11" t="s">
-        <v>505</v>
+        <v>571</v>
       </c>
       <c r="G11" t="s">
-        <v>533</v>
+        <v>600</v>
       </c>
       <c r="H11" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="I11" t="s">
-        <v>570</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>590</v>
+        <v>651</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="B12" t="s">
-        <v>356</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="D12" t="s">
-        <v>463</v>
+        <v>524</v>
       </c>
       <c r="E12" t="s">
-        <v>475</v>
+        <v>536</v>
       </c>
       <c r="F12" t="s">
-        <v>506</v>
+        <v>570</v>
       </c>
       <c r="G12" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="H12" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="I12" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="J12" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s">
-        <v>118</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="B13" t="s">
-        <v>356</v>
+        <v>436</v>
       </c>
       <c r="C13" t="s">
-        <v>456</v>
+        <v>518</v>
       </c>
       <c r="D13" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="E13" t="s">
-        <v>476</v>
+        <v>538</v>
       </c>
       <c r="F13" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="G13" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="H13" t="s">
-        <v>545</v>
+        <v>613</v>
       </c>
       <c r="I13" t="s">
-        <v>564</v>
-      </c>
-      <c r="J13" t="s">
-        <v>588</v>
+        <v>636</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="B14" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="C14" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="E14" t="s">
-        <v>477</v>
+        <v>539</v>
       </c>
       <c r="F14" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="G14" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
       <c r="H14" t="s">
-        <v>546</v>
+        <v>614</v>
       </c>
       <c r="I14" t="s">
-        <v>572</v>
-      </c>
-      <c r="J14" t="s">
-        <v>587</v>
+        <v>637</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="B15" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="C15" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="D15" t="s">
-        <v>458</v>
+        <v>520</v>
       </c>
       <c r="E15" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="F15" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="G15" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="H15" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="I15" t="s">
-        <v>573</v>
+        <v>631</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="B16" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
       <c r="C16" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>521</v>
       </c>
       <c r="E16" t="s">
-        <v>479</v>
+        <v>541</v>
       </c>
       <c r="F16" t="s">
-        <v>510</v>
+        <v>575</v>
       </c>
       <c r="G16" t="s">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="H16" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="I16" t="s">
-        <v>408</v>
+        <v>231</v>
       </c>
       <c r="J16" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="B17" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
       <c r="C17" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="D17" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="E17" t="s">
-        <v>480</v>
+        <v>542</v>
       </c>
       <c r="F17" t="s">
-        <v>511</v>
+        <v>576</v>
       </c>
       <c r="G17" t="s">
-        <v>534</v>
+        <v>596</v>
       </c>
       <c r="H17" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="I17" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="J17" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="B18" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="C18" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="D18" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
       <c r="E18" t="s">
-        <v>481</v>
+        <v>543</v>
       </c>
       <c r="F18" t="s">
-        <v>512</v>
+        <v>577</v>
       </c>
       <c r="G18" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="H18" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
-      </c>
-      <c r="J18" t="s">
-        <v>588</v>
+        <v>638</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="B19" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="C19" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="D19" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="E19" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="F19" t="s">
-        <v>513</v>
+        <v>578</v>
       </c>
       <c r="G19" t="s">
-        <v>530</v>
+        <v>600</v>
       </c>
       <c r="H19" t="s">
-        <v>537</v>
+        <v>618</v>
       </c>
       <c r="I19" t="s">
-        <v>575</v>
+        <v>147</v>
       </c>
       <c r="J19" t="s">
-        <v>587</v>
+        <v>651</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="B20" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="C20" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="D20" t="s">
-        <v>463</v>
+        <v>523</v>
       </c>
       <c r="E20" t="s">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="F20" t="s">
-        <v>514</v>
+        <v>579</v>
       </c>
       <c r="G20" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="H20" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="I20" t="s">
-        <v>576</v>
+        <v>639</v>
+      </c>
+      <c r="J20" t="s">
+        <v>652</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="B21" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
       <c r="D21" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="E21" t="s">
-        <v>484</v>
+        <v>546</v>
       </c>
       <c r="F21" t="s">
-        <v>515</v>
+        <v>580</v>
       </c>
       <c r="G21" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="H21" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="I21" t="s">
-        <v>577</v>
+        <v>638</v>
+      </c>
+      <c r="J21" t="s">
+        <v>650</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22" t="s">
         <v>438</v>
       </c>
-      <c r="B22" t="s">
-        <v>359</v>
-      </c>
       <c r="C22" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="E22" t="s">
-        <v>485</v>
+        <v>547</v>
       </c>
       <c r="F22" t="s">
-        <v>516</v>
+        <v>581</v>
       </c>
       <c r="G22" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="H22" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="I22" t="s">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="J22" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23" t="s">
         <v>439</v>
       </c>
-      <c r="B23" t="s">
-        <v>360</v>
-      </c>
       <c r="C23" t="s">
-        <v>450</v>
+        <v>517</v>
       </c>
       <c r="D23" t="s">
-        <v>463</v>
+        <v>522</v>
       </c>
       <c r="E23" t="s">
-        <v>486</v>
+        <v>548</v>
       </c>
       <c r="F23" t="s">
-        <v>517</v>
+        <v>582</v>
       </c>
       <c r="G23" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="H23" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="I23" t="s">
-        <v>579</v>
+        <v>641</v>
       </c>
       <c r="J23" t="s">
-        <v>587</v>
+        <v>650</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="B24" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
+        <v>519</v>
       </c>
       <c r="D24" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="E24" t="s">
-        <v>487</v>
+        <v>549</v>
       </c>
       <c r="F24" t="s">
-        <v>518</v>
+        <v>583</v>
       </c>
       <c r="G24" t="s">
-        <v>529</v>
+        <v>596</v>
       </c>
       <c r="H24" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="I24" t="s">
-        <v>580</v>
+        <v>642</v>
       </c>
       <c r="J24" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="B25" t="s">
-        <v>360</v>
+        <v>439</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="D25" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
       <c r="E25" t="s">
-        <v>488</v>
+        <v>550</v>
       </c>
       <c r="F25" t="s">
-        <v>519</v>
+        <v>584</v>
       </c>
       <c r="G25" t="s">
-        <v>528</v>
+        <v>603</v>
       </c>
       <c r="H25" t="s">
-        <v>541</v>
+        <v>609</v>
       </c>
       <c r="I25" t="s">
-        <v>581</v>
+        <v>642</v>
+      </c>
+      <c r="J25" t="s">
+        <v>652</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="B26" t="s">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="C26" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="E26" t="s">
-        <v>489</v>
+        <v>551</v>
       </c>
       <c r="F26" t="s">
-        <v>520</v>
+        <v>585</v>
       </c>
       <c r="G26" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
       <c r="H26" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="I26" t="s">
-        <v>582</v>
+        <v>643</v>
       </c>
       <c r="J26" t="s">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="B27" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="C27" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="D27" t="s">
-        <v>458</v>
+        <v>525</v>
       </c>
       <c r="E27" t="s">
-        <v>490</v>
+        <v>552</v>
       </c>
       <c r="F27" t="s">
-        <v>521</v>
+        <v>586</v>
       </c>
       <c r="G27" t="s">
-        <v>528</v>
+        <v>596</v>
       </c>
       <c r="H27" t="s">
-        <v>555</v>
+        <v>625</v>
       </c>
       <c r="I27" t="s">
-        <v>583</v>
+        <v>644</v>
       </c>
       <c r="J27" t="s">
-        <v>588</v>
+        <v>653</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="B28" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="C28" t="s">
-        <v>453</v>
+        <v>513</v>
       </c>
       <c r="D28" t="s">
-        <v>464</v>
+        <v>524</v>
       </c>
       <c r="E28" t="s">
-        <v>491</v>
+        <v>553</v>
       </c>
       <c r="F28" t="s">
-        <v>522</v>
+        <v>587</v>
       </c>
       <c r="G28" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="H28" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>645</v>
       </c>
       <c r="J28" t="s">
-        <v>590</v>
+        <v>650</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>440</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="D29" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="E29" t="s">
-        <v>492</v>
+        <v>554</v>
       </c>
       <c r="F29" t="s">
-        <v>523</v>
+        <v>588</v>
       </c>
       <c r="G29" t="s">
-        <v>533</v>
+        <v>601</v>
       </c>
       <c r="H29" t="s">
-        <v>558</v>
+        <v>613</v>
       </c>
       <c r="I29" t="s">
-        <v>584</v>
+        <v>646</v>
       </c>
       <c r="J29" t="s">
-        <v>590</v>
+        <v>653</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>446</v>
+        <v>505</v>
       </c>
       <c r="B30" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="C30" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="D30" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="E30" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="F30" t="s">
-        <v>524</v>
+        <v>589</v>
       </c>
       <c r="G30" t="s">
-        <v>532</v>
+        <v>598</v>
       </c>
       <c r="H30" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="I30" t="s">
-        <v>585</v>
+        <v>101</v>
       </c>
       <c r="J30" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="K30">
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>447</v>
+        <v>506</v>
       </c>
       <c r="B31" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C31" t="s">
-        <v>451</v>
+        <v>517</v>
       </c>
       <c r="D31" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="E31" t="s">
-        <v>494</v>
+        <v>556</v>
       </c>
       <c r="F31" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="G31" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="H31" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="I31" t="s">
-        <v>570</v>
+        <v>647</v>
       </c>
       <c r="J31" t="s">
-        <v>588</v>
+        <v>651</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>448</v>
+        <v>507</v>
       </c>
       <c r="B32" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C32" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="D32" t="s">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E32" t="s">
-        <v>495</v>
+        <v>557</v>
       </c>
       <c r="F32" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="G32" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="H32" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="I32" t="s">
-        <v>586</v>
-      </c>
-      <c r="J32" t="s">
-        <v>589</v>
+        <v>636</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>449</v>
+        <v>508</v>
       </c>
       <c r="B33" t="s">
-        <v>362</v>
+        <v>441</v>
       </c>
       <c r="C33" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="D33" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="E33" t="s">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="F33" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="G33" t="s">
-        <v>530</v>
+        <v>596</v>
       </c>
       <c r="H33" t="s">
-        <v>562</v>
+        <v>604</v>
       </c>
       <c r="I33" t="s">
-        <v>584</v>
+        <v>648</v>
       </c>
       <c r="J33" t="s">
-        <v>590</v>
+        <v>652</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>118</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>509</v>
+      </c>
+      <c r="B34" t="s">
+        <v>442</v>
+      </c>
+      <c r="C34" t="s">
+        <v>516</v>
+      </c>
+      <c r="D34" t="s">
+        <v>524</v>
+      </c>
+      <c r="E34" t="s">
+        <v>559</v>
+      </c>
+      <c r="F34" t="s">
+        <v>593</v>
+      </c>
+      <c r="G34" t="s">
+        <v>599</v>
+      </c>
+      <c r="H34" t="s">
+        <v>611</v>
+      </c>
+      <c r="I34" t="s">
+        <v>100</v>
+      </c>
+      <c r="J34" t="s">
+        <v>650</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>510</v>
+      </c>
+      <c r="B35" t="s">
+        <v>442</v>
+      </c>
+      <c r="C35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D35" t="s">
+        <v>527</v>
+      </c>
+      <c r="E35" t="s">
+        <v>560</v>
+      </c>
+      <c r="F35" t="s">
+        <v>594</v>
+      </c>
+      <c r="G35" t="s">
+        <v>602</v>
+      </c>
+      <c r="H35" t="s">
+        <v>629</v>
+      </c>
+      <c r="I35" t="s">
+        <v>633</v>
+      </c>
+      <c r="J35" t="s">
+        <v>653</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>511</v>
+      </c>
+      <c r="B36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C36" t="s">
+        <v>517</v>
+      </c>
+      <c r="D36" t="s">
+        <v>520</v>
+      </c>
+      <c r="E36" t="s">
+        <v>561</v>
+      </c>
+      <c r="F36" t="s">
+        <v>595</v>
+      </c>
+      <c r="G36" t="s">
+        <v>600</v>
+      </c>
+      <c r="H36" t="s">
+        <v>612</v>
+      </c>
+      <c r="I36" t="s">
+        <v>649</v>
+      </c>
+      <c r="J36" t="s">
+        <v>651</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5383,33 +6134,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>592</v>
+        <v>655</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>350</v>
+        <v>430</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>351</v>
+        <v>431</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>594</v>
+        <v>657</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>595</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s">
-        <v>363</v>
+        <v>28</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -5424,18 +6175,18 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>596</v>
+        <v>659</v>
       </c>
       <c r="H2" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -5450,18 +6201,18 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="H3" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
-        <v>365</v>
+        <v>30</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -5476,18 +6227,18 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>598</v>
+        <v>661</v>
       </c>
       <c r="H4" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>436</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>31</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -5502,18 +6253,18 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>599</v>
+        <v>662</v>
       </c>
       <c r="H5" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
-        <v>367</v>
+        <v>32</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -5528,18 +6279,18 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>600</v>
+        <v>663</v>
       </c>
       <c r="H6" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s">
-        <v>368</v>
+        <v>33</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
@@ -5554,18 +6305,18 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="H7" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
-        <v>369</v>
+        <v>34</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -5580,18 +6331,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>601</v>
+        <v>664</v>
       </c>
       <c r="H8" t="s">
-        <v>603</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s">
-        <v>370</v>
+        <v>35</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -5606,18 +6357,18 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="H9" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s">
-        <v>371</v>
+        <v>36</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -5632,18 +6383,18 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>602</v>
+        <v>665</v>
       </c>
       <c r="H10" t="s">
-        <v>603</v>
+        <v>666</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>37</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -5658,10 +6409,10 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
       <c r="H11" t="s">
-        <v>597</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>
@@ -5679,63 +6430,63 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -5743,31 +6494,31 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -5775,31 +6526,31 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -5820,19 +6571,19 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -5841,7 +6592,7 @@
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
@@ -5849,10 +6600,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>250</v>
@@ -5861,27 +6612,27 @@
         <v>45000000</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -5890,19 +6641,19 @@
         <v>25000000</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5920,19 +6671,19 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>6</v>
@@ -5944,7 +6695,7 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>14</v>
@@ -5952,66 +6703,66 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6029,25 +6780,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>178</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>14</v>
@@ -6055,54 +6806,54 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>184</v>
       </c>
       <c r="D2">
         <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="D3">
         <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -6120,16 +6871,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -6138,99 +6889,99 @@
         <v>14</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6248,22 +6999,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>14</v>
@@ -6272,123 +7023,123 @@
         <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
-        <v>151</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>227</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="H4" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" t="s">
         <v>147</v>
       </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
-      </c>
       <c r="H5" t="s">
-        <v>158</v>
+        <v>239</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6412,28 +7163,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>163</v>
+        <v>244</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>164</v>
+        <v>245</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>17</v>
@@ -6444,34 +7195,34 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="H2">
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="K2" t="s">
-        <v>180</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6479,69 +7230,69 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="H3">
         <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="H4">
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="K4" t="s">
-        <v>182</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -6565,34 +7316,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>184</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>185</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>188</v>
+        <v>268</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>190</v>
+        <v>270</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -6600,7 +7351,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C2">
         <v>95</v>
@@ -6615,22 +7366,22 @@
         <v>91.5</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -6638,7 +7389,7 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="C3">
         <v>85</v>
@@ -6653,30 +7404,30 @@
         <v>81.5</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="I3" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="K3">
         <v>10</v>
       </c>
       <c r="L3" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="C4">
         <v>70</v>
@@ -6691,22 +7442,22 @@
         <v>66.5</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="I4" t="s">
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="J4" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="K4">
         <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
